--- a/calendar_chilean_2022A.xlsx
+++ b/calendar_chilean_2022A.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed268546/Dropbox/Mac/Documents/codes/SPOCK_chilean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF976B40-11E1-4143-AF4E-A6406097080E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4567032-4966-6644-9580-DD5A0B1837C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{29A8BF1E-0110-C24B-9407-C010B9269ACA}"/>
   </bookViews>
@@ -23,8 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -156,12 +160,27 @@
   <si>
     <t>weather loss</t>
   </si>
+  <si>
+    <t>CN2022A-74</t>
+  </si>
+  <si>
+    <t>FT2022A-01</t>
+  </si>
+  <si>
+    <t>FT2022A-09</t>
+  </si>
+  <si>
+    <t>FT2022A-08</t>
+  </si>
+  <si>
+    <t>Program ID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -191,6 +210,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -639,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -667,40 +704,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -742,34 +773,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -784,10 +815,10 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -796,7 +827,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1113,22 +1168,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD27D292-CBD1-CA4F-A514-6D8CE062AE5E}">
-  <dimension ref="A1:L216"/>
+  <dimension ref="A1:M216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="132" workbookViewId="0">
-      <selection activeCell="F200" sqref="F200"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="7" width="10.83203125" style="15"/>
-    <col min="8" max="8" width="51.33203125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="11" max="11" width="16.1640625" customWidth="1"/>
-    <col min="12" max="12" width="23.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="14"/>
+    <col min="7" max="7" width="15.33203125" style="63" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="14"/>
+    <col min="9" max="9" width="51.33203125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" customWidth="1"/>
+    <col min="13" max="13" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1144,24 +1201,27 @@
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="27">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="25">
         <v>44652</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="28">
         <v>1</v>
       </c>
       <c r="C2" s="5">
@@ -1170,27 +1230,30 @@
       <c r="D2" s="5">
         <v>0</v>
       </c>
-      <c r="E2" s="31">
-        <v>0</v>
-      </c>
-      <c r="F2" s="40" t="s">
+      <c r="E2" s="29">
+        <v>0</v>
+      </c>
+      <c r="F2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="42" t="s">
+      <c r="G2" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="28">
+      <c r="J2" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="26">
         <v>44653</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="30">
         <v>1</v>
       </c>
       <c r="C3" s="2">
@@ -1199,27 +1262,30 @@
       <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="31">
         <v>0</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="26" t="s">
+      <c r="G3" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="28">
+      <c r="J3" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="26">
         <v>44654</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="30">
         <v>1</v>
       </c>
       <c r="C4" s="2">
@@ -1228,27 +1294,30 @@
       <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="31">
         <v>0</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="26" t="s">
+      <c r="G4" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="28">
+      <c r="J4" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="26">
         <v>44655</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="32">
         <v>0</v>
       </c>
       <c r="C5" s="2">
@@ -1257,19 +1326,18 @@
       <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="31">
         <v>0</v>
       </c>
       <c r="F5" s="13"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="28">
+      <c r="G5" s="61"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="26">
         <v>44656</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="32">
         <v>0</v>
       </c>
       <c r="C6" s="2">
@@ -1278,19 +1346,18 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="31">
         <v>0</v>
       </c>
       <c r="F6" s="13"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="28">
+      <c r="G6" s="61"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="26">
         <v>44657</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="32">
         <v>0</v>
       </c>
       <c r="C7" s="2">
@@ -1299,19 +1366,18 @@
       <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="31">
         <v>0</v>
       </c>
       <c r="F7" s="13"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="28">
+      <c r="G7" s="61"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="26">
         <v>44658</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="32">
         <v>0</v>
       </c>
       <c r="C8" s="2">
@@ -1320,19 +1386,18 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="31">
         <v>0</v>
       </c>
       <c r="F8" s="13"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="28">
+      <c r="G8" s="61"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="26">
         <v>44659</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="32">
         <v>0</v>
       </c>
       <c r="C9" s="2">
@@ -1341,19 +1406,18 @@
       <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="31">
         <v>0</v>
       </c>
       <c r="F9" s="13"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="28">
+      <c r="G9" s="59"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="26">
         <v>44660</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="32">
         <v>0</v>
       </c>
       <c r="C10" s="2">
@@ -1362,19 +1426,18 @@
       <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="31">
         <v>0</v>
       </c>
       <c r="F10" s="13"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="28">
+      <c r="G10" s="59"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="26">
         <v>44661</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="32">
         <v>0</v>
       </c>
       <c r="C11" s="1">
@@ -1383,27 +1446,30 @@
       <c r="D11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="33">
-        <v>0</v>
-      </c>
-      <c r="F11" s="45" t="s">
+      <c r="E11" s="31">
+        <v>0</v>
+      </c>
+      <c r="F11" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="25" t="s">
+      <c r="G11" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="28">
+      <c r="J11" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="26">
         <v>44662</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="32">
         <v>0</v>
       </c>
       <c r="C12" s="1">
@@ -1412,27 +1478,30 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="E12" s="33">
-        <v>0</v>
-      </c>
-      <c r="F12" s="45" t="s">
+      <c r="E12" s="31">
+        <v>0</v>
+      </c>
+      <c r="F12" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="25" t="s">
+      <c r="G12" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="47" t="s">
+      <c r="J12" s="45" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="28">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="26">
         <v>44663</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="32">
         <v>0</v>
       </c>
       <c r="C13" s="1">
@@ -1441,56 +1510,62 @@
       <c r="D13" s="2">
         <v>0</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="31">
         <v>0</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="25" t="s">
+      <c r="G13" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="28">
+      <c r="J13" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="26">
         <v>44664</v>
       </c>
-      <c r="B14" s="34">
-        <v>0</v>
-      </c>
-      <c r="C14" s="50">
+      <c r="B14" s="32">
+        <v>0</v>
+      </c>
+      <c r="C14" s="48">
         <v>1</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
-      <c r="E14" s="33">
-        <v>0</v>
-      </c>
-      <c r="F14" s="45" t="s">
+      <c r="E14" s="31">
+        <v>0</v>
+      </c>
+      <c r="F14" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="48" t="s">
+      <c r="G14" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="28">
+      <c r="J14" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="26">
         <v>44665</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="32">
         <v>0</v>
       </c>
       <c r="C15" s="2">
@@ -1499,19 +1574,18 @@
       <c r="D15" s="2">
         <v>0</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="31">
         <v>0</v>
       </c>
       <c r="F15" s="13"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="28">
+      <c r="G15" s="59"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="26">
         <v>44666</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="32">
         <v>0</v>
       </c>
       <c r="C16" s="2">
@@ -1520,19 +1594,18 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="31">
         <v>0</v>
       </c>
       <c r="F16" s="13"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="28">
+      <c r="G16" s="59"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="26">
         <v>44667</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="32">
         <v>0</v>
       </c>
       <c r="C17" s="2">
@@ -1541,19 +1614,18 @@
       <c r="D17" s="2">
         <v>0</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="31">
         <v>0</v>
       </c>
       <c r="F17" s="13"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="28">
+      <c r="G17" s="59"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="26">
         <v>44668</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="32">
         <v>0</v>
       </c>
       <c r="C18" s="2">
@@ -1562,19 +1634,18 @@
       <c r="D18" s="2">
         <v>0</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="31">
         <v>0</v>
       </c>
       <c r="F18" s="13"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="28">
+      <c r="G18" s="59"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="26">
         <v>44669</v>
       </c>
-      <c r="B19" s="34">
+      <c r="B19" s="32">
         <v>0</v>
       </c>
       <c r="C19" s="2">
@@ -1583,19 +1654,18 @@
       <c r="D19" s="2">
         <v>0</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="31">
         <v>0</v>
       </c>
       <c r="F19" s="13"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="28">
+      <c r="G19" s="59"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="26">
         <v>44670</v>
       </c>
-      <c r="B20" s="34">
+      <c r="B20" s="32">
         <v>0</v>
       </c>
       <c r="C20" s="2">
@@ -1604,27 +1674,30 @@
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="31">
         <v>0</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="25" t="s">
+      <c r="G20" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="I20" s="49" t="s">
+      <c r="J20" s="47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="28">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="26">
         <v>44671</v>
       </c>
-      <c r="B21" s="34">
+      <c r="B21" s="32">
         <v>0</v>
       </c>
       <c r="C21" s="2">
@@ -1633,27 +1706,30 @@
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="33">
-        <v>0</v>
-      </c>
-      <c r="F21" s="45" t="s">
+      <c r="E21" s="31">
+        <v>0</v>
+      </c>
+      <c r="F21" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="25" t="s">
+      <c r="G21" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="49" t="s">
+      <c r="J21" s="47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="28">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="26">
         <v>44672</v>
       </c>
-      <c r="B22" s="34">
+      <c r="B22" s="32">
         <v>0</v>
       </c>
       <c r="C22" s="2">
@@ -1662,27 +1738,30 @@
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="33">
-        <v>0</v>
-      </c>
-      <c r="F22" s="45" t="s">
+      <c r="E22" s="31">
+        <v>0</v>
+      </c>
+      <c r="F22" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="25" t="s">
+      <c r="G22" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="49" t="s">
+      <c r="J22" s="47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="28">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="26">
         <v>44673</v>
       </c>
-      <c r="B23" s="34">
+      <c r="B23" s="32">
         <v>0</v>
       </c>
       <c r="C23" s="2">
@@ -1691,19 +1770,18 @@
       <c r="D23" s="2">
         <v>0</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="31">
         <v>0</v>
       </c>
       <c r="F23" s="13"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="10"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="28">
+      <c r="G23" s="59"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="26">
         <v>44674</v>
       </c>
-      <c r="B24" s="34">
+      <c r="B24" s="32">
         <v>0</v>
       </c>
       <c r="C24" s="2">
@@ -1712,19 +1790,18 @@
       <c r="D24" s="2">
         <v>0</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="31">
         <v>0</v>
       </c>
       <c r="F24" s="13"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="28">
+      <c r="G24" s="59"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="26">
         <v>44675</v>
       </c>
-      <c r="B25" s="34">
+      <c r="B25" s="32">
         <v>0</v>
       </c>
       <c r="C25" s="2">
@@ -1733,19 +1810,18 @@
       <c r="D25" s="2">
         <v>0</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="31">
         <v>0</v>
       </c>
       <c r="F25" s="13"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="10"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="28">
+      <c r="G25" s="59"/>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="26">
         <v>44676</v>
       </c>
-      <c r="B26" s="34">
+      <c r="B26" s="32">
         <v>0</v>
       </c>
       <c r="C26" s="2">
@@ -1754,19 +1830,18 @@
       <c r="D26" s="2">
         <v>0</v>
       </c>
-      <c r="E26" s="33">
+      <c r="E26" s="31">
         <v>0</v>
       </c>
       <c r="F26" s="13"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="10"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="28">
+      <c r="G26" s="59"/>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="26">
         <v>44677</v>
       </c>
-      <c r="B27" s="34">
+      <c r="B27" s="32">
         <v>0</v>
       </c>
       <c r="C27" s="2">
@@ -1775,19 +1850,18 @@
       <c r="D27" s="2">
         <v>0</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="31">
         <v>0</v>
       </c>
       <c r="F27" s="13"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="28">
+      <c r="G27" s="59"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="26">
         <v>44678</v>
       </c>
-      <c r="B28" s="34">
+      <c r="B28" s="32">
         <v>0</v>
       </c>
       <c r="C28" s="2">
@@ -1796,19 +1870,18 @@
       <c r="D28" s="2">
         <v>0</v>
       </c>
-      <c r="E28" s="33">
+      <c r="E28" s="31">
         <v>0</v>
       </c>
       <c r="F28" s="13"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="10"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="28">
+      <c r="G28" s="59"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="26">
         <v>44679</v>
       </c>
-      <c r="B29" s="34">
+      <c r="B29" s="32">
         <v>0</v>
       </c>
       <c r="C29" s="2">
@@ -1817,27 +1890,30 @@
       <c r="D29" s="2">
         <v>0</v>
       </c>
-      <c r="E29" s="35">
+      <c r="E29" s="33">
         <v>1</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="26" t="s">
+      <c r="G29" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="49" t="s">
+      <c r="J29" s="47" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="28">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="26">
         <v>44680</v>
       </c>
-      <c r="B30" s="34">
+      <c r="B30" s="32">
         <v>0</v>
       </c>
       <c r="C30" s="2">
@@ -1846,27 +1922,30 @@
       <c r="D30" s="2">
         <v>0</v>
       </c>
-      <c r="E30" s="35">
+      <c r="E30" s="33">
         <v>1</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="26" t="s">
+      <c r="G30" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I30" s="49" t="s">
+      <c r="J30" s="47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="28">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="26">
         <v>44681</v>
       </c>
-      <c r="B31" s="34">
+      <c r="B31" s="32">
         <v>0</v>
       </c>
       <c r="C31" s="2">
@@ -1875,27 +1954,30 @@
       <c r="D31" s="2">
         <v>0</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E31" s="33">
         <v>1</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="26" t="s">
+      <c r="G31" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I31" s="49" t="s">
+      <c r="J31" s="47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="28">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="26">
         <v>44682</v>
       </c>
-      <c r="B32" s="34">
+      <c r="B32" s="32">
         <v>0</v>
       </c>
       <c r="C32" s="2">
@@ -1904,19 +1986,18 @@
       <c r="D32" s="2">
         <v>0</v>
       </c>
-      <c r="E32" s="33">
+      <c r="E32" s="31">
         <v>0</v>
       </c>
       <c r="F32" s="13"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="10"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="28">
+      <c r="G32" s="59"/>
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="26">
         <v>44683</v>
       </c>
-      <c r="B33" s="34">
+      <c r="B33" s="32">
         <v>0</v>
       </c>
       <c r="C33" s="2">
@@ -1925,19 +2006,18 @@
       <c r="D33" s="2">
         <v>0</v>
       </c>
-      <c r="E33" s="33">
+      <c r="E33" s="31">
         <v>0</v>
       </c>
       <c r="F33" s="13"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="10"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="28">
+      <c r="G33" s="59"/>
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="26">
         <v>44684</v>
       </c>
-      <c r="B34" s="34">
+      <c r="B34" s="32">
         <v>0</v>
       </c>
       <c r="C34" s="2">
@@ -1946,19 +2026,18 @@
       <c r="D34" s="2">
         <v>0</v>
       </c>
-      <c r="E34" s="33">
+      <c r="E34" s="31">
         <v>0</v>
       </c>
       <c r="F34" s="13"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="10"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="28">
+      <c r="G34" s="59"/>
+      <c r="J34" s="10"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="26">
         <v>44685</v>
       </c>
-      <c r="B35" s="34">
+      <c r="B35" s="32">
         <v>0</v>
       </c>
       <c r="C35" s="2">
@@ -1967,19 +2046,18 @@
       <c r="D35" s="2">
         <v>0</v>
       </c>
-      <c r="E35" s="33">
+      <c r="E35" s="31">
         <v>0</v>
       </c>
       <c r="F35" s="13"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="10"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="28">
+      <c r="G35" s="59"/>
+      <c r="J35" s="10"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="26">
         <v>44686</v>
       </c>
-      <c r="B36" s="34">
+      <c r="B36" s="32">
         <v>0</v>
       </c>
       <c r="C36" s="2">
@@ -1988,19 +2066,18 @@
       <c r="D36" s="2">
         <v>0</v>
       </c>
-      <c r="E36" s="33">
+      <c r="E36" s="31">
         <v>0</v>
       </c>
       <c r="F36" s="13"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="10"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="28">
+      <c r="G36" s="59"/>
+      <c r="J36" s="10"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="26">
         <v>44687</v>
       </c>
-      <c r="B37" s="34">
+      <c r="B37" s="32">
         <v>0</v>
       </c>
       <c r="C37" s="2">
@@ -2009,19 +2086,18 @@
       <c r="D37" s="2">
         <v>0</v>
       </c>
-      <c r="E37" s="33">
+      <c r="E37" s="31">
         <v>0</v>
       </c>
       <c r="F37" s="13"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="10"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="28">
+      <c r="G37" s="59"/>
+      <c r="J37" s="10"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="26">
         <v>44688</v>
       </c>
-      <c r="B38" s="32">
+      <c r="B38" s="30">
         <v>1</v>
       </c>
       <c r="C38" s="2">
@@ -2030,27 +2106,30 @@
       <c r="D38" s="2">
         <v>0</v>
       </c>
-      <c r="E38" s="33">
-        <v>0</v>
-      </c>
-      <c r="F38" s="45" t="s">
+      <c r="E38" s="31">
+        <v>0</v>
+      </c>
+      <c r="F38" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="25" t="s">
+      <c r="G38" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I38" s="49" t="s">
+      <c r="J38" s="47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="28">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="26">
         <v>44689</v>
       </c>
-      <c r="B39" s="32">
+      <c r="B39" s="30">
         <v>1</v>
       </c>
       <c r="C39" s="2">
@@ -2059,27 +2138,30 @@
       <c r="D39" s="2">
         <v>0</v>
       </c>
-      <c r="E39" s="33">
-        <v>0</v>
-      </c>
-      <c r="F39" s="45" t="s">
+      <c r="E39" s="31">
+        <v>0</v>
+      </c>
+      <c r="F39" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G39" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="25" t="s">
+      <c r="G39" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I39" s="49" t="s">
+      <c r="J39" s="47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="28">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="26">
         <v>44690</v>
       </c>
-      <c r="B40" s="32">
+      <c r="B40" s="30">
         <v>1</v>
       </c>
       <c r="C40" s="2">
@@ -2088,27 +2170,30 @@
       <c r="D40" s="2">
         <v>0</v>
       </c>
-      <c r="E40" s="33">
+      <c r="E40" s="31">
         <v>0</v>
       </c>
       <c r="F40" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G40" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="25" t="s">
+      <c r="G40" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="I40" s="49" t="s">
+      <c r="J40" s="47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="28">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="26">
         <v>44691</v>
       </c>
-      <c r="B41" s="34">
+      <c r="B41" s="32">
         <v>0</v>
       </c>
       <c r="C41" s="2">
@@ -2117,19 +2202,18 @@
       <c r="D41" s="2">
         <v>0</v>
       </c>
-      <c r="E41" s="33">
+      <c r="E41" s="31">
         <v>0</v>
       </c>
       <c r="F41" s="13"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="10"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="28">
+      <c r="G41" s="59"/>
+      <c r="J41" s="10"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="26">
         <v>44692</v>
       </c>
-      <c r="B42" s="34">
+      <c r="B42" s="32">
         <v>0</v>
       </c>
       <c r="C42" s="2">
@@ -2138,19 +2222,18 @@
       <c r="D42" s="2">
         <v>0</v>
       </c>
-      <c r="E42" s="33">
+      <c r="E42" s="31">
         <v>0</v>
       </c>
       <c r="F42" s="13"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="10"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="28">
+      <c r="G42" s="59"/>
+      <c r="J42" s="10"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="26">
         <v>44693</v>
       </c>
-      <c r="B43" s="34">
+      <c r="B43" s="32">
         <v>0</v>
       </c>
       <c r="C43" s="2">
@@ -2159,19 +2242,18 @@
       <c r="D43" s="2">
         <v>0</v>
       </c>
-      <c r="E43" s="33">
+      <c r="E43" s="31">
         <v>0</v>
       </c>
       <c r="F43" s="13"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="10"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="28">
+      <c r="G43" s="59"/>
+      <c r="J43" s="10"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="26">
         <v>44694</v>
       </c>
-      <c r="B44" s="34">
+      <c r="B44" s="32">
         <v>0</v>
       </c>
       <c r="C44" s="2">
@@ -2180,19 +2262,18 @@
       <c r="D44" s="2">
         <v>0</v>
       </c>
-      <c r="E44" s="33">
+      <c r="E44" s="31">
         <v>0</v>
       </c>
       <c r="F44" s="13"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="10"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="28">
+      <c r="G44" s="59"/>
+      <c r="J44" s="10"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="26">
         <v>44695</v>
       </c>
-      <c r="B45" s="34">
+      <c r="B45" s="32">
         <v>0</v>
       </c>
       <c r="C45" s="2">
@@ -2201,19 +2282,18 @@
       <c r="D45" s="2">
         <v>0</v>
       </c>
-      <c r="E45" s="33">
+      <c r="E45" s="31">
         <v>0</v>
       </c>
       <c r="F45" s="13"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="10"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="28">
+      <c r="G45" s="59"/>
+      <c r="J45" s="10"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="26">
         <v>44696</v>
       </c>
-      <c r="B46" s="34">
+      <c r="B46" s="32">
         <v>0</v>
       </c>
       <c r="C46" s="2">
@@ -2222,19 +2302,18 @@
       <c r="D46" s="2">
         <v>0</v>
       </c>
-      <c r="E46" s="33">
+      <c r="E46" s="31">
         <v>0</v>
       </c>
       <c r="F46" s="13"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="10"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="28">
+      <c r="G46" s="59"/>
+      <c r="J46" s="10"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="26">
         <v>44697</v>
       </c>
-      <c r="B47" s="34">
+      <c r="B47" s="32">
         <v>0</v>
       </c>
       <c r="C47" s="1">
@@ -2243,27 +2322,30 @@
       <c r="D47" s="2">
         <v>0</v>
       </c>
-      <c r="E47" s="33">
+      <c r="E47" s="31">
         <v>0</v>
       </c>
       <c r="F47" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G47" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" s="25" t="s">
+      <c r="G47" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I47" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="28">
+      <c r="J47" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="26">
         <v>44698</v>
       </c>
-      <c r="B48" s="34">
+      <c r="B48" s="32">
         <v>0</v>
       </c>
       <c r="C48" s="1">
@@ -2272,27 +2354,30 @@
       <c r="D48" s="2">
         <v>0</v>
       </c>
-      <c r="E48" s="33">
+      <c r="E48" s="31">
         <v>0</v>
       </c>
       <c r="F48" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" s="51" t="s">
+      <c r="G48" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="I48" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="28">
+      <c r="J48" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="26">
         <v>44699</v>
       </c>
-      <c r="B49" s="34">
+      <c r="B49" s="32">
         <v>0</v>
       </c>
       <c r="C49" s="1">
@@ -2301,27 +2386,30 @@
       <c r="D49" s="2">
         <v>0</v>
       </c>
-      <c r="E49" s="33">
+      <c r="E49" s="31">
         <v>0</v>
       </c>
       <c r="F49" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" s="25" t="s">
+      <c r="G49" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I49" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="28">
+      <c r="J49" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="26">
         <v>44700</v>
       </c>
-      <c r="B50" s="34">
+      <c r="B50" s="32">
         <v>0</v>
       </c>
       <c r="C50" s="2">
@@ -2330,19 +2418,18 @@
       <c r="D50" s="2">
         <v>0</v>
       </c>
-      <c r="E50" s="33">
+      <c r="E50" s="31">
         <v>0</v>
       </c>
       <c r="F50" s="13"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="10"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="28">
+      <c r="G50" s="59"/>
+      <c r="J50" s="10"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="26">
         <v>44701</v>
       </c>
-      <c r="B51" s="34">
+      <c r="B51" s="32">
         <v>0</v>
       </c>
       <c r="C51" s="2">
@@ -2351,19 +2438,18 @@
       <c r="D51" s="2">
         <v>0</v>
       </c>
-      <c r="E51" s="33">
+      <c r="E51" s="31">
         <v>0</v>
       </c>
       <c r="F51" s="13"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="10"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="28">
+      <c r="G51" s="59"/>
+      <c r="J51" s="10"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="26">
         <v>44702</v>
       </c>
-      <c r="B52" s="34">
+      <c r="B52" s="32">
         <v>0</v>
       </c>
       <c r="C52" s="2">
@@ -2372,19 +2458,18 @@
       <c r="D52" s="2">
         <v>0</v>
       </c>
-      <c r="E52" s="33">
+      <c r="E52" s="31">
         <v>0</v>
       </c>
       <c r="F52" s="13"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="10"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="28">
+      <c r="G52" s="59"/>
+      <c r="J52" s="10"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="26">
         <v>44703</v>
       </c>
-      <c r="B53" s="34">
+      <c r="B53" s="32">
         <v>0</v>
       </c>
       <c r="C53" s="2">
@@ -2393,19 +2478,18 @@
       <c r="D53" s="2">
         <v>0</v>
       </c>
-      <c r="E53" s="33">
+      <c r="E53" s="31">
         <v>0</v>
       </c>
       <c r="F53" s="13"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="10"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="28">
+      <c r="G53" s="61"/>
+      <c r="J53" s="10"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="26">
         <v>44704</v>
       </c>
-      <c r="B54" s="34">
+      <c r="B54" s="32">
         <v>0</v>
       </c>
       <c r="C54" s="2">
@@ -2414,19 +2498,18 @@
       <c r="D54" s="2">
         <v>0</v>
       </c>
-      <c r="E54" s="33">
+      <c r="E54" s="31">
         <v>0</v>
       </c>
       <c r="F54" s="13"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="10"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="28">
+      <c r="G54" s="61"/>
+      <c r="J54" s="10"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="26">
         <v>44705</v>
       </c>
-      <c r="B55" s="34">
+      <c r="B55" s="32">
         <v>0</v>
       </c>
       <c r="C55" s="2">
@@ -2435,19 +2518,18 @@
       <c r="D55" s="2">
         <v>0</v>
       </c>
-      <c r="E55" s="33">
+      <c r="E55" s="31">
         <v>0</v>
       </c>
       <c r="F55" s="13"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="10"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="28">
+      <c r="G55" s="61"/>
+      <c r="J55" s="10"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="26">
         <v>44706</v>
       </c>
-      <c r="B56" s="34">
+      <c r="B56" s="32">
         <v>0</v>
       </c>
       <c r="C56" s="2">
@@ -2456,27 +2538,30 @@
       <c r="D56" s="1">
         <v>1</v>
       </c>
-      <c r="E56" s="33">
+      <c r="E56" s="31">
         <v>0</v>
       </c>
       <c r="F56" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G56" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" s="26" t="s">
+      <c r="G56" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="H56" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I56" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="28">
+      <c r="J56" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="26">
         <v>44707</v>
       </c>
-      <c r="B57" s="34">
+      <c r="B57" s="32">
         <v>0</v>
       </c>
       <c r="C57" s="2">
@@ -2485,27 +2570,30 @@
       <c r="D57" s="1">
         <v>1</v>
       </c>
-      <c r="E57" s="33">
+      <c r="E57" s="31">
         <v>0</v>
       </c>
       <c r="F57" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G57" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" s="26" t="s">
+      <c r="G57" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I57" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="28">
+      <c r="J57" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="26">
         <v>44708</v>
       </c>
-      <c r="B58" s="34">
+      <c r="B58" s="32">
         <v>0</v>
       </c>
       <c r="C58" s="2">
@@ -2514,27 +2602,30 @@
       <c r="D58" s="1">
         <v>1</v>
       </c>
-      <c r="E58" s="33">
+      <c r="E58" s="31">
         <v>0</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" s="26" t="s">
+      <c r="G58" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="H58" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I58" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="28">
+      <c r="J58" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="26">
         <v>44709</v>
       </c>
-      <c r="B59" s="34">
+      <c r="B59" s="32">
         <v>0</v>
       </c>
       <c r="C59" s="2">
@@ -2543,19 +2634,18 @@
       <c r="D59" s="2">
         <v>0</v>
       </c>
-      <c r="E59" s="33">
+      <c r="E59" s="31">
         <v>0</v>
       </c>
       <c r="F59" s="13"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="10"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="28">
+      <c r="G59" s="61"/>
+      <c r="J59" s="10"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="26">
         <v>44710</v>
       </c>
-      <c r="B60" s="34">
+      <c r="B60" s="32">
         <v>0</v>
       </c>
       <c r="C60" s="2">
@@ -2564,19 +2654,18 @@
       <c r="D60" s="2">
         <v>0</v>
       </c>
-      <c r="E60" s="33">
+      <c r="E60" s="31">
         <v>0</v>
       </c>
       <c r="F60" s="13"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="10"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="28">
+      <c r="G60" s="61"/>
+      <c r="J60" s="10"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="26">
         <v>44711</v>
       </c>
-      <c r="B61" s="34">
+      <c r="B61" s="32">
         <v>0</v>
       </c>
       <c r="C61" s="2">
@@ -2585,19 +2674,18 @@
       <c r="D61" s="2">
         <v>0</v>
       </c>
-      <c r="E61" s="33">
+      <c r="E61" s="31">
         <v>0</v>
       </c>
       <c r="F61" s="13"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="10"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="28">
+      <c r="G61" s="61"/>
+      <c r="J61" s="10"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="26">
         <v>44712</v>
       </c>
-      <c r="B62" s="34">
+      <c r="B62" s="32">
         <v>0</v>
       </c>
       <c r="C62" s="2">
@@ -2606,19 +2694,18 @@
       <c r="D62" s="2">
         <v>0</v>
       </c>
-      <c r="E62" s="33">
+      <c r="E62" s="31">
         <v>0</v>
       </c>
       <c r="F62" s="13"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="10"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="28">
+      <c r="G62" s="61"/>
+      <c r="J62" s="10"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="26">
         <v>44713</v>
       </c>
-      <c r="B63" s="34">
+      <c r="B63" s="32">
         <v>0</v>
       </c>
       <c r="C63" s="2">
@@ -2627,19 +2714,18 @@
       <c r="D63" s="2">
         <v>0</v>
       </c>
-      <c r="E63" s="33">
+      <c r="E63" s="31">
         <v>0</v>
       </c>
       <c r="F63" s="13"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="10"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="28">
+      <c r="G63" s="61"/>
+      <c r="J63" s="10"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="26">
         <v>44714</v>
       </c>
-      <c r="B64" s="34">
+      <c r="B64" s="32">
         <v>0</v>
       </c>
       <c r="C64" s="2">
@@ -2648,19 +2734,18 @@
       <c r="D64" s="2">
         <v>0</v>
       </c>
-      <c r="E64" s="33">
+      <c r="E64" s="31">
         <v>0</v>
       </c>
       <c r="F64" s="13"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="10"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="28">
+      <c r="G64" s="61"/>
+      <c r="J64" s="10"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="26">
         <v>44715</v>
       </c>
-      <c r="B65" s="35">
+      <c r="B65" s="33">
         <v>1</v>
       </c>
       <c r="C65" s="2">
@@ -2675,21 +2760,24 @@
       <c r="F65" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G65" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" s="26" t="s">
+      <c r="G65" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="H65" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I65" s="49" t="s">
+      <c r="J65" s="47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="28">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="26">
         <v>44716</v>
       </c>
-      <c r="B66" s="35">
+      <c r="B66" s="33">
         <v>1</v>
       </c>
       <c r="C66" s="2">
@@ -2704,21 +2792,24 @@
       <c r="F66" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G66" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" s="26" t="s">
+      <c r="G66" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="H66" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I66" s="49" t="s">
+      <c r="J66" s="47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="28">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="26">
         <v>44717</v>
       </c>
-      <c r="B67" s="35">
+      <c r="B67" s="33">
         <v>1</v>
       </c>
       <c r="C67" s="2">
@@ -2733,21 +2824,24 @@
       <c r="F67" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G67" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" s="26" t="s">
+      <c r="G67" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="H67" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I67" s="49" t="s">
+      <c r="J67" s="47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="28">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="26">
         <v>44718</v>
       </c>
-      <c r="B68" s="34">
+      <c r="B68" s="32">
         <v>0</v>
       </c>
       <c r="C68" s="2">
@@ -2756,19 +2850,18 @@
       <c r="D68" s="2">
         <v>0</v>
       </c>
-      <c r="E68" s="33">
+      <c r="E68" s="31">
         <v>0</v>
       </c>
       <c r="F68" s="13"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="10"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="28">
+      <c r="G68" s="61"/>
+      <c r="J68" s="10"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="26">
         <v>44719</v>
       </c>
-      <c r="B69" s="34">
+      <c r="B69" s="32">
         <v>0</v>
       </c>
       <c r="C69" s="2">
@@ -2777,19 +2870,18 @@
       <c r="D69" s="2">
         <v>0</v>
       </c>
-      <c r="E69" s="33">
+      <c r="E69" s="31">
         <v>0</v>
       </c>
       <c r="F69" s="13"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="10"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="28">
+      <c r="G69" s="61"/>
+      <c r="J69" s="10"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="26">
         <v>44720</v>
       </c>
-      <c r="B70" s="34">
+      <c r="B70" s="32">
         <v>0</v>
       </c>
       <c r="C70" s="2">
@@ -2798,19 +2890,18 @@
       <c r="D70" s="2">
         <v>0</v>
       </c>
-      <c r="E70" s="33">
+      <c r="E70" s="31">
         <v>0</v>
       </c>
       <c r="F70" s="13"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="10"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="28">
+      <c r="G70" s="61"/>
+      <c r="J70" s="10"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="26">
         <v>44721</v>
       </c>
-      <c r="B71" s="34">
+      <c r="B71" s="32">
         <v>0</v>
       </c>
       <c r="C71" s="2">
@@ -2819,19 +2910,18 @@
       <c r="D71" s="2">
         <v>0</v>
       </c>
-      <c r="E71" s="33">
+      <c r="E71" s="31">
         <v>0</v>
       </c>
       <c r="F71" s="13"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="10"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="28">
+      <c r="G71" s="61"/>
+      <c r="J71" s="10"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="26">
         <v>44722</v>
       </c>
-      <c r="B72" s="34">
+      <c r="B72" s="32">
         <v>0</v>
       </c>
       <c r="C72" s="2">
@@ -2840,19 +2930,18 @@
       <c r="D72" s="2">
         <v>0</v>
       </c>
-      <c r="E72" s="33">
+      <c r="E72" s="31">
         <v>0</v>
       </c>
       <c r="F72" s="13"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="10"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="28">
+      <c r="G72" s="61"/>
+      <c r="J72" s="10"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="26">
         <v>44723</v>
       </c>
-      <c r="B73" s="34">
+      <c r="B73" s="32">
         <v>0</v>
       </c>
       <c r="C73" s="2">
@@ -2861,19 +2950,18 @@
       <c r="D73" s="2">
         <v>0</v>
       </c>
-      <c r="E73" s="33">
+      <c r="E73" s="31">
         <v>0</v>
       </c>
       <c r="F73" s="13"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="10"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="28">
+      <c r="G73" s="61"/>
+      <c r="J73" s="10"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="26">
         <v>44724</v>
       </c>
-      <c r="B74" s="32">
+      <c r="B74" s="30">
         <v>1</v>
       </c>
       <c r="C74" s="2">
@@ -2882,27 +2970,30 @@
       <c r="D74" s="2">
         <v>0</v>
       </c>
-      <c r="E74" s="33">
+      <c r="E74" s="31">
         <v>0</v>
       </c>
       <c r="F74" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G74" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" s="26" t="s">
+      <c r="G74" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="H74" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I74" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="28">
+      <c r="J74" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="26">
         <v>44725</v>
       </c>
-      <c r="B75" s="32">
+      <c r="B75" s="30">
         <v>1</v>
       </c>
       <c r="C75" s="2">
@@ -2911,27 +3002,30 @@
       <c r="D75" s="2">
         <v>0</v>
       </c>
-      <c r="E75" s="33">
+      <c r="E75" s="31">
         <v>0</v>
       </c>
       <c r="F75" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G75" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" s="26" t="s">
+      <c r="G75" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="H75" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I75" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="28">
+      <c r="J75" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="26">
         <v>44726</v>
       </c>
-      <c r="B76" s="32">
+      <c r="B76" s="30">
         <v>1</v>
       </c>
       <c r="C76" s="2">
@@ -2940,27 +3034,30 @@
       <c r="D76" s="2">
         <v>0</v>
       </c>
-      <c r="E76" s="33">
+      <c r="E76" s="31">
         <v>0</v>
       </c>
       <c r="F76" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G76" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" s="26" t="s">
+      <c r="G76" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="H76" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I76" s="49" t="s">
+      <c r="J76" s="47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="28">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="26">
         <v>44727</v>
       </c>
-      <c r="B77" s="34">
+      <c r="B77" s="32">
         <v>0</v>
       </c>
       <c r="C77" s="2">
@@ -2969,19 +3066,18 @@
       <c r="D77" s="2">
         <v>0</v>
       </c>
-      <c r="E77" s="33">
+      <c r="E77" s="31">
         <v>0</v>
       </c>
       <c r="F77" s="13"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="10"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="28">
+      <c r="G77" s="61"/>
+      <c r="J77" s="10"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="26">
         <v>44728</v>
       </c>
-      <c r="B78" s="34">
+      <c r="B78" s="32">
         <v>0</v>
       </c>
       <c r="C78" s="2">
@@ -2990,19 +3086,18 @@
       <c r="D78" s="2">
         <v>0</v>
       </c>
-      <c r="E78" s="33">
+      <c r="E78" s="31">
         <v>0</v>
       </c>
       <c r="F78" s="13"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="10"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="28">
+      <c r="G78" s="61"/>
+      <c r="J78" s="10"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="26">
         <v>44729</v>
       </c>
-      <c r="B79" s="34">
+      <c r="B79" s="32">
         <v>0</v>
       </c>
       <c r="C79" s="2">
@@ -3011,19 +3106,18 @@
       <c r="D79" s="2">
         <v>0</v>
       </c>
-      <c r="E79" s="33">
+      <c r="E79" s="31">
         <v>0</v>
       </c>
       <c r="F79" s="13"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="10"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="28">
+      <c r="G79" s="61"/>
+      <c r="J79" s="10"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="26">
         <v>44730</v>
       </c>
-      <c r="B80" s="34">
+      <c r="B80" s="32">
         <v>0</v>
       </c>
       <c r="C80" s="2">
@@ -3032,19 +3126,18 @@
       <c r="D80" s="2">
         <v>0</v>
       </c>
-      <c r="E80" s="33">
+      <c r="E80" s="31">
         <v>0</v>
       </c>
       <c r="F80" s="13"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="10"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="28">
+      <c r="G80" s="61"/>
+      <c r="J80" s="10"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="26">
         <v>44731</v>
       </c>
-      <c r="B81" s="34">
+      <c r="B81" s="32">
         <v>0</v>
       </c>
       <c r="C81" s="2">
@@ -3053,19 +3146,18 @@
       <c r="D81" s="2">
         <v>0</v>
       </c>
-      <c r="E81" s="33">
+      <c r="E81" s="31">
         <v>0</v>
       </c>
       <c r="F81" s="13"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="10"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="28">
+      <c r="G81" s="61"/>
+      <c r="J81" s="10"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="26">
         <v>44732</v>
       </c>
-      <c r="B82" s="34">
+      <c r="B82" s="32">
         <v>0</v>
       </c>
       <c r="C82" s="2">
@@ -3074,19 +3166,18 @@
       <c r="D82" s="2">
         <v>0</v>
       </c>
-      <c r="E82" s="33">
+      <c r="E82" s="31">
         <v>0</v>
       </c>
       <c r="F82" s="13"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="10"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="28">
+      <c r="G82" s="61"/>
+      <c r="J82" s="10"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="26">
         <v>44733</v>
       </c>
-      <c r="B83" s="34">
+      <c r="B83" s="32">
         <v>0</v>
       </c>
       <c r="C83" s="1">
@@ -3095,27 +3186,28 @@
       <c r="D83" s="2">
         <v>0</v>
       </c>
-      <c r="E83" s="33">
+      <c r="E83" s="31">
         <v>0</v>
       </c>
       <c r="F83" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G83" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H83" s="26" t="s">
+      <c r="G83" s="61"/>
+      <c r="H83" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I83" s="49" t="s">
+      <c r="J83" s="47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="28">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="26">
         <v>44734</v>
       </c>
-      <c r="B84" s="34">
+      <c r="B84" s="32">
         <v>0</v>
       </c>
       <c r="C84" s="1">
@@ -3124,27 +3216,30 @@
       <c r="D84" s="2">
         <v>0</v>
       </c>
-      <c r="E84" s="33">
+      <c r="E84" s="31">
         <v>0</v>
       </c>
       <c r="F84" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G84" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H84" s="26" t="s">
+      <c r="G84" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="H84" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I84" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I84" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="28">
+      <c r="J84" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" s="26">
         <v>44735</v>
       </c>
-      <c r="B85" s="34">
+      <c r="B85" s="32">
         <v>0</v>
       </c>
       <c r="C85" s="1">
@@ -3153,27 +3248,30 @@
       <c r="D85" s="2">
         <v>0</v>
       </c>
-      <c r="E85" s="33">
+      <c r="E85" s="31">
         <v>0</v>
       </c>
       <c r="F85" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G85" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" s="26" t="s">
+      <c r="G85" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="H85" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I85" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="28">
+      <c r="J85" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="26">
         <v>44736</v>
       </c>
-      <c r="B86" s="34">
+      <c r="B86" s="32">
         <v>0</v>
       </c>
       <c r="C86" s="2">
@@ -3182,19 +3280,18 @@
       <c r="D86" s="2">
         <v>0</v>
       </c>
-      <c r="E86" s="33">
+      <c r="E86" s="31">
         <v>0</v>
       </c>
       <c r="F86" s="13"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="10"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="28">
+      <c r="G86" s="61"/>
+      <c r="J86" s="10"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="26">
         <v>44737</v>
       </c>
-      <c r="B87" s="34">
+      <c r="B87" s="32">
         <v>0</v>
       </c>
       <c r="C87" s="2">
@@ -3203,19 +3300,18 @@
       <c r="D87" s="2">
         <v>0</v>
       </c>
-      <c r="E87" s="33">
+      <c r="E87" s="31">
         <v>0</v>
       </c>
       <c r="F87" s="13"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="10"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="28">
+      <c r="G87" s="61"/>
+      <c r="J87" s="10"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" s="26">
         <v>44738</v>
       </c>
-      <c r="B88" s="34">
+      <c r="B88" s="32">
         <v>0</v>
       </c>
       <c r="C88" s="2">
@@ -3224,19 +3320,18 @@
       <c r="D88" s="2">
         <v>0</v>
       </c>
-      <c r="E88" s="33">
+      <c r="E88" s="31">
         <v>0</v>
       </c>
       <c r="F88" s="13"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="10"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="28">
+      <c r="G88" s="61"/>
+      <c r="J88" s="10"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" s="26">
         <v>44739</v>
       </c>
-      <c r="B89" s="34">
+      <c r="B89" s="32">
         <v>0</v>
       </c>
       <c r="C89" s="2">
@@ -3245,19 +3340,18 @@
       <c r="D89" s="2">
         <v>0</v>
       </c>
-      <c r="E89" s="33">
+      <c r="E89" s="31">
         <v>0</v>
       </c>
       <c r="F89" s="13"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="10"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="28">
+      <c r="G89" s="61"/>
+      <c r="J89" s="10"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" s="26">
         <v>44740</v>
       </c>
-      <c r="B90" s="34">
+      <c r="B90" s="32">
         <v>0</v>
       </c>
       <c r="C90" s="2">
@@ -3266,19 +3360,18 @@
       <c r="D90" s="2">
         <v>0</v>
       </c>
-      <c r="E90" s="33">
+      <c r="E90" s="31">
         <v>0</v>
       </c>
       <c r="F90" s="13"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="10"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="28">
+      <c r="G90" s="61"/>
+      <c r="J90" s="10"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" s="26">
         <v>44741</v>
       </c>
-      <c r="B91" s="34">
+      <c r="B91" s="32">
         <v>0</v>
       </c>
       <c r="C91" s="2">
@@ -3287,19 +3380,18 @@
       <c r="D91" s="2">
         <v>0</v>
       </c>
-      <c r="E91" s="33">
+      <c r="E91" s="31">
         <v>0</v>
       </c>
       <c r="F91" s="13"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="10"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="28">
+      <c r="G91" s="61"/>
+      <c r="J91" s="10"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" s="26">
         <v>44742</v>
       </c>
-      <c r="B92" s="34">
+      <c r="B92" s="32">
         <v>0</v>
       </c>
       <c r="C92" s="2">
@@ -3308,27 +3400,30 @@
       <c r="D92" s="1">
         <v>1</v>
       </c>
-      <c r="E92" s="33">
+      <c r="E92" s="31">
         <v>0</v>
       </c>
       <c r="F92" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G92" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H92" s="52" t="s">
+      <c r="G92" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="H92" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I92" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="I92" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="28">
+      <c r="J92" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" s="26">
         <v>44743</v>
       </c>
-      <c r="B93" s="34">
+      <c r="B93" s="32">
         <v>0</v>
       </c>
       <c r="C93" s="2">
@@ -3337,27 +3432,30 @@
       <c r="D93" s="1">
         <v>1</v>
       </c>
-      <c r="E93" s="33">
+      <c r="E93" s="31">
         <v>0</v>
       </c>
       <c r="F93" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G93" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H93" s="25" t="s">
+      <c r="G93" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="H93" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I93" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I93" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="28">
+      <c r="J93" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" s="26">
         <v>44744</v>
       </c>
-      <c r="B94" s="34">
+      <c r="B94" s="32">
         <v>0</v>
       </c>
       <c r="C94" s="2">
@@ -3366,27 +3464,30 @@
       <c r="D94" s="1">
         <v>1</v>
       </c>
-      <c r="E94" s="33">
+      <c r="E94" s="31">
         <v>0</v>
       </c>
       <c r="F94" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G94" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H94" s="25" t="s">
+      <c r="G94" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="H94" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I94" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I94" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="28">
+      <c r="J94" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" s="26">
         <v>44745</v>
       </c>
-      <c r="B95" s="34">
+      <c r="B95" s="32">
         <v>0</v>
       </c>
       <c r="C95" s="2">
@@ -3395,19 +3496,18 @@
       <c r="D95" s="2">
         <v>0</v>
       </c>
-      <c r="E95" s="33">
+      <c r="E95" s="31">
         <v>0</v>
       </c>
       <c r="F95" s="13"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="10"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="28">
+      <c r="G95" s="61"/>
+      <c r="J95" s="10"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" s="26">
         <v>44746</v>
       </c>
-      <c r="B96" s="34">
+      <c r="B96" s="32">
         <v>0</v>
       </c>
       <c r="C96" s="2">
@@ -3416,19 +3516,18 @@
       <c r="D96" s="2">
         <v>0</v>
       </c>
-      <c r="E96" s="33">
+      <c r="E96" s="31">
         <v>0</v>
       </c>
       <c r="F96" s="13"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="10"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="28">
+      <c r="G96" s="61"/>
+      <c r="J96" s="10"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" s="26">
         <v>44747</v>
       </c>
-      <c r="B97" s="34">
+      <c r="B97" s="32">
         <v>0</v>
       </c>
       <c r="C97" s="2">
@@ -3437,19 +3536,18 @@
       <c r="D97" s="2">
         <v>0</v>
       </c>
-      <c r="E97" s="33">
+      <c r="E97" s="31">
         <v>0</v>
       </c>
       <c r="F97" s="13"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="10"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="28">
+      <c r="G97" s="61"/>
+      <c r="J97" s="10"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" s="26">
         <v>44748</v>
       </c>
-      <c r="B98" s="34">
+      <c r="B98" s="32">
         <v>0</v>
       </c>
       <c r="C98" s="2">
@@ -3458,19 +3556,18 @@
       <c r="D98" s="2">
         <v>0</v>
       </c>
-      <c r="E98" s="33">
+      <c r="E98" s="31">
         <v>0</v>
       </c>
       <c r="F98" s="13"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="10"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="28">
+      <c r="G98" s="61"/>
+      <c r="J98" s="10"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" s="26">
         <v>44749</v>
       </c>
-      <c r="B99" s="34">
+      <c r="B99" s="32">
         <v>0</v>
       </c>
       <c r="C99" s="2">
@@ -3479,19 +3576,18 @@
       <c r="D99" s="2">
         <v>0</v>
       </c>
-      <c r="E99" s="33">
+      <c r="E99" s="31">
         <v>0</v>
       </c>
       <c r="F99" s="13"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="10"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="28">
+      <c r="G99" s="61"/>
+      <c r="J99" s="10"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" s="26">
         <v>44750</v>
       </c>
-      <c r="B100" s="34">
+      <c r="B100" s="32">
         <v>0</v>
       </c>
       <c r="C100" s="2">
@@ -3500,16 +3596,15 @@
       <c r="D100" s="2">
         <v>0</v>
       </c>
-      <c r="E100" s="33">
+      <c r="E100" s="31">
         <v>0</v>
       </c>
       <c r="F100" s="13"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="10"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="28">
+      <c r="G100" s="61"/>
+      <c r="J100" s="10"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" s="26">
         <v>44751</v>
       </c>
       <c r="B101" s="2">
@@ -3518,27 +3613,30 @@
       <c r="C101" s="2">
         <v>0</v>
       </c>
-      <c r="D101" s="35">
-        <v>1</v>
-      </c>
-      <c r="E101" s="33">
+      <c r="D101" s="33">
+        <v>1</v>
+      </c>
+      <c r="E101" s="31">
         <v>0</v>
       </c>
       <c r="F101" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G101" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H101" s="52" t="s">
+      <c r="G101" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="H101" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I101" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="I101" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="28">
+      <c r="J101" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" s="26">
         <v>44752</v>
       </c>
       <c r="B102" s="2">
@@ -3547,27 +3645,30 @@
       <c r="C102" s="2">
         <v>0</v>
       </c>
-      <c r="D102" s="35">
-        <v>1</v>
-      </c>
-      <c r="E102" s="33">
+      <c r="D102" s="33">
+        <v>1</v>
+      </c>
+      <c r="E102" s="31">
         <v>0</v>
       </c>
       <c r="F102" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G102" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H102" s="52" t="s">
+      <c r="G102" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="H102" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I102" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="I102" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="28">
+      <c r="J102" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" s="26">
         <v>44753</v>
       </c>
       <c r="B103" s="2">
@@ -3576,30 +3677,33 @@
       <c r="C103" s="2">
         <v>0</v>
       </c>
-      <c r="D103" s="35">
-        <v>1</v>
-      </c>
-      <c r="E103" s="33">
+      <c r="D103" s="33">
+        <v>1</v>
+      </c>
+      <c r="E103" s="31">
         <v>0</v>
       </c>
       <c r="F103" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G103" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H103" s="52" t="s">
+      <c r="G103" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="H103" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I103" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="I103" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="28">
+      <c r="J103" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" s="26">
         <v>44754</v>
       </c>
-      <c r="B104" s="34">
+      <c r="B104" s="32">
         <v>0</v>
       </c>
       <c r="C104" s="2">
@@ -3608,19 +3712,18 @@
       <c r="D104" s="2">
         <v>0</v>
       </c>
-      <c r="E104" s="33">
+      <c r="E104" s="31">
         <v>0</v>
       </c>
       <c r="F104" s="13"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="16"/>
-      <c r="I104" s="10"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="28">
+      <c r="G104" s="61"/>
+      <c r="J104" s="10"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" s="26">
         <v>44755</v>
       </c>
-      <c r="B105" s="34">
+      <c r="B105" s="32">
         <v>0</v>
       </c>
       <c r="C105" s="2">
@@ -3629,19 +3732,18 @@
       <c r="D105" s="2">
         <v>0</v>
       </c>
-      <c r="E105" s="33">
+      <c r="E105" s="31">
         <v>0</v>
       </c>
       <c r="F105" s="13"/>
-      <c r="G105" s="16"/>
-      <c r="H105" s="16"/>
-      <c r="I105" s="10"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="28">
+      <c r="G105" s="61"/>
+      <c r="J105" s="10"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" s="26">
         <v>44756</v>
       </c>
-      <c r="B106" s="34">
+      <c r="B106" s="32">
         <v>0</v>
       </c>
       <c r="C106" s="2">
@@ -3650,19 +3752,18 @@
       <c r="D106" s="2">
         <v>0</v>
       </c>
-      <c r="E106" s="33">
+      <c r="E106" s="31">
         <v>0</v>
       </c>
       <c r="F106" s="13"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="16"/>
-      <c r="I106" s="10"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="28">
+      <c r="G106" s="61"/>
+      <c r="J106" s="10"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" s="26">
         <v>44757</v>
       </c>
-      <c r="B107" s="34">
+      <c r="B107" s="32">
         <v>0</v>
       </c>
       <c r="C107" s="2">
@@ -3671,19 +3772,18 @@
       <c r="D107" s="2">
         <v>0</v>
       </c>
-      <c r="E107" s="33">
+      <c r="E107" s="31">
         <v>0</v>
       </c>
       <c r="F107" s="13"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="16"/>
-      <c r="I107" s="10"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="28">
+      <c r="G107" s="61"/>
+      <c r="J107" s="10"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108" s="26">
         <v>44758</v>
       </c>
-      <c r="B108" s="34">
+      <c r="B108" s="32">
         <v>0</v>
       </c>
       <c r="C108" s="2">
@@ -3692,19 +3792,18 @@
       <c r="D108" s="2">
         <v>0</v>
       </c>
-      <c r="E108" s="33">
+      <c r="E108" s="31">
         <v>0</v>
       </c>
       <c r="F108" s="13"/>
-      <c r="G108" s="16"/>
-      <c r="H108" s="16"/>
-      <c r="I108" s="10"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="28">
+      <c r="G108" s="61"/>
+      <c r="J108" s="10"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109" s="26">
         <v>44759</v>
       </c>
-      <c r="B109" s="34">
+      <c r="B109" s="32">
         <v>0</v>
       </c>
       <c r="C109" s="2">
@@ -3713,19 +3812,18 @@
       <c r="D109" s="2">
         <v>0</v>
       </c>
-      <c r="E109" s="33">
+      <c r="E109" s="31">
         <v>0</v>
       </c>
       <c r="F109" s="13"/>
-      <c r="G109" s="16"/>
-      <c r="H109" s="16"/>
-      <c r="I109" s="10"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="28">
+      <c r="G109" s="61"/>
+      <c r="J109" s="10"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110" s="26">
         <v>44760</v>
       </c>
-      <c r="B110" s="32">
+      <c r="B110" s="30">
         <v>1</v>
       </c>
       <c r="C110" s="2">
@@ -3734,27 +3832,30 @@
       <c r="D110" s="2">
         <v>0</v>
       </c>
-      <c r="E110" s="33">
+      <c r="E110" s="31">
         <v>0</v>
       </c>
       <c r="F110" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G110" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H110" s="52" t="s">
+      <c r="G110" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="H110" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I110" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="I110" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="28">
+      <c r="J110" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111" s="26">
         <v>44761</v>
       </c>
-      <c r="B111" s="32">
+      <c r="B111" s="30">
         <v>1</v>
       </c>
       <c r="C111" s="2">
@@ -3763,27 +3864,30 @@
       <c r="D111" s="2">
         <v>0</v>
       </c>
-      <c r="E111" s="33">
+      <c r="E111" s="31">
         <v>0</v>
       </c>
       <c r="F111" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G111" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H111" s="52" t="s">
+      <c r="G111" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="H111" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I111" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="I111" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="28">
+      <c r="J111" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112" s="26">
         <v>44762</v>
       </c>
-      <c r="B112" s="32">
+      <c r="B112" s="30">
         <v>1</v>
       </c>
       <c r="C112" s="2">
@@ -3792,27 +3896,30 @@
       <c r="D112" s="2">
         <v>0</v>
       </c>
-      <c r="E112" s="33">
+      <c r="E112" s="31">
         <v>0</v>
       </c>
       <c r="F112" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G112" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H112" s="52" t="s">
+      <c r="G112" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="H112" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I112" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="I112" s="49" t="s">
+      <c r="J112" s="47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" s="28">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113" s="26">
         <v>44763</v>
       </c>
-      <c r="B113" s="34">
+      <c r="B113" s="32">
         <v>0</v>
       </c>
       <c r="C113" s="2">
@@ -3821,19 +3928,18 @@
       <c r="D113" s="2">
         <v>0</v>
       </c>
-      <c r="E113" s="33">
+      <c r="E113" s="31">
         <v>0</v>
       </c>
       <c r="F113" s="13"/>
-      <c r="G113" s="16"/>
-      <c r="H113" s="16"/>
-      <c r="I113" s="10"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" s="28">
+      <c r="G113" s="61"/>
+      <c r="J113" s="10"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114" s="26">
         <v>44764</v>
       </c>
-      <c r="B114" s="34">
+      <c r="B114" s="32">
         <v>0</v>
       </c>
       <c r="C114" s="2">
@@ -3842,19 +3948,18 @@
       <c r="D114" s="2">
         <v>0</v>
       </c>
-      <c r="E114" s="33">
+      <c r="E114" s="31">
         <v>0</v>
       </c>
       <c r="F114" s="13"/>
-      <c r="G114" s="16"/>
-      <c r="H114" s="16"/>
-      <c r="I114" s="10"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" s="28">
+      <c r="G114" s="61"/>
+      <c r="J114" s="10"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115" s="26">
         <v>44765</v>
       </c>
-      <c r="B115" s="34">
+      <c r="B115" s="32">
         <v>0</v>
       </c>
       <c r="C115" s="2">
@@ -3863,19 +3968,18 @@
       <c r="D115" s="2">
         <v>0</v>
       </c>
-      <c r="E115" s="33">
+      <c r="E115" s="31">
         <v>0</v>
       </c>
       <c r="F115" s="13"/>
-      <c r="G115" s="16"/>
-      <c r="H115" s="16"/>
-      <c r="I115" s="10"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" s="28">
+      <c r="G115" s="61"/>
+      <c r="J115" s="10"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116" s="26">
         <v>44766</v>
       </c>
-      <c r="B116" s="34">
+      <c r="B116" s="32">
         <v>0</v>
       </c>
       <c r="C116" s="2">
@@ -3884,19 +3988,18 @@
       <c r="D116" s="2">
         <v>0</v>
       </c>
-      <c r="E116" s="33">
+      <c r="E116" s="31">
         <v>0</v>
       </c>
       <c r="F116" s="13"/>
-      <c r="G116" s="16"/>
-      <c r="H116" s="16"/>
-      <c r="I116" s="10"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" s="28">
+      <c r="G116" s="61"/>
+      <c r="J116" s="10"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" s="26">
         <v>44767</v>
       </c>
-      <c r="B117" s="34">
+      <c r="B117" s="32">
         <v>0</v>
       </c>
       <c r="C117" s="2">
@@ -3905,19 +4008,18 @@
       <c r="D117" s="2">
         <v>0</v>
       </c>
-      <c r="E117" s="33">
+      <c r="E117" s="31">
         <v>0</v>
       </c>
       <c r="F117" s="13"/>
-      <c r="G117" s="16"/>
-      <c r="H117" s="16"/>
-      <c r="I117" s="10"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" s="28">
+      <c r="G117" s="61"/>
+      <c r="J117" s="10"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118" s="26">
         <v>44768</v>
       </c>
-      <c r="B118" s="34">
+      <c r="B118" s="32">
         <v>0</v>
       </c>
       <c r="C118" s="2">
@@ -3926,19 +4028,18 @@
       <c r="D118" s="2">
         <v>0</v>
       </c>
-      <c r="E118" s="33">
+      <c r="E118" s="31">
         <v>0</v>
       </c>
       <c r="F118" s="13"/>
-      <c r="G118" s="16"/>
-      <c r="H118" s="16"/>
-      <c r="I118" s="10"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" s="28">
+      <c r="G118" s="61"/>
+      <c r="J118" s="10"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" s="26">
         <v>44769</v>
       </c>
-      <c r="B119" s="34">
+      <c r="B119" s="32">
         <v>0</v>
       </c>
       <c r="C119" s="1">
@@ -3947,27 +4048,30 @@
       <c r="D119" s="2">
         <v>0</v>
       </c>
-      <c r="E119" s="33">
+      <c r="E119" s="31">
         <v>0</v>
       </c>
       <c r="F119" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G119" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H119" s="25" t="s">
+      <c r="G119" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="H119" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I119" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="I119" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" s="28">
+      <c r="J119" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" s="26">
         <v>44770</v>
       </c>
-      <c r="B120" s="34">
+      <c r="B120" s="32">
         <v>0</v>
       </c>
       <c r="C120" s="1">
@@ -3976,27 +4080,30 @@
       <c r="D120" s="2">
         <v>0</v>
       </c>
-      <c r="E120" s="33">
-        <v>0</v>
-      </c>
-      <c r="F120" s="45" t="s">
+      <c r="E120" s="31">
+        <v>0</v>
+      </c>
+      <c r="F120" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G120" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H120" s="25" t="s">
+      <c r="G120" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="H120" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I120" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="I120" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121" s="28">
+      <c r="J120" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121" s="26">
         <v>44771</v>
       </c>
-      <c r="B121" s="34">
+      <c r="B121" s="32">
         <v>0</v>
       </c>
       <c r="C121" s="1">
@@ -4005,27 +4112,30 @@
       <c r="D121" s="2">
         <v>0</v>
       </c>
-      <c r="E121" s="33">
-        <v>0</v>
-      </c>
-      <c r="F121" s="45" t="s">
+      <c r="E121" s="31">
+        <v>0</v>
+      </c>
+      <c r="F121" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G121" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H121" s="25" t="s">
+      <c r="G121" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="H121" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I121" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="I121" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A122" s="28">
+      <c r="J121" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" s="26">
         <v>44772</v>
       </c>
-      <c r="B122" s="34">
+      <c r="B122" s="32">
         <v>0</v>
       </c>
       <c r="C122" s="2">
@@ -4034,19 +4144,18 @@
       <c r="D122" s="2">
         <v>0</v>
       </c>
-      <c r="E122" s="33">
+      <c r="E122" s="31">
         <v>0</v>
       </c>
       <c r="F122" s="13"/>
-      <c r="G122" s="16"/>
-      <c r="H122" s="16"/>
-      <c r="I122" s="10"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123" s="28">
+      <c r="G122" s="61"/>
+      <c r="J122" s="10"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123" s="26">
         <v>44773</v>
       </c>
-      <c r="B123" s="34">
+      <c r="B123" s="32">
         <v>0</v>
       </c>
       <c r="C123" s="2">
@@ -4055,19 +4164,18 @@
       <c r="D123" s="2">
         <v>0</v>
       </c>
-      <c r="E123" s="33">
+      <c r="E123" s="31">
         <v>0</v>
       </c>
       <c r="F123" s="13"/>
-      <c r="G123" s="16"/>
-      <c r="H123" s="16"/>
-      <c r="I123" s="10"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124" s="28">
+      <c r="G123" s="61"/>
+      <c r="J123" s="10"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" s="26">
         <v>44774</v>
       </c>
-      <c r="B124" s="34">
+      <c r="B124" s="32">
         <v>0</v>
       </c>
       <c r="C124" s="2">
@@ -4076,19 +4184,18 @@
       <c r="D124" s="2">
         <v>0</v>
       </c>
-      <c r="E124" s="33">
+      <c r="E124" s="31">
         <v>0</v>
       </c>
       <c r="F124" s="13"/>
-      <c r="G124" s="16"/>
-      <c r="H124" s="16"/>
-      <c r="I124" s="10"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125" s="28">
+      <c r="G124" s="61"/>
+      <c r="J124" s="10"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" s="26">
         <v>44775</v>
       </c>
-      <c r="B125" s="34">
+      <c r="B125" s="32">
         <v>0</v>
       </c>
       <c r="C125" s="2">
@@ -4097,19 +4204,18 @@
       <c r="D125" s="2">
         <v>0</v>
       </c>
-      <c r="E125" s="33">
+      <c r="E125" s="31">
         <v>0</v>
       </c>
       <c r="F125" s="13"/>
-      <c r="G125" s="16"/>
-      <c r="H125" s="16"/>
-      <c r="I125" s="10"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126" s="28">
+      <c r="G125" s="61"/>
+      <c r="J125" s="10"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" s="26">
         <v>44776</v>
       </c>
-      <c r="B126" s="34">
+      <c r="B126" s="32">
         <v>0</v>
       </c>
       <c r="C126" s="2">
@@ -4118,19 +4224,18 @@
       <c r="D126" s="2">
         <v>0</v>
       </c>
-      <c r="E126" s="33">
+      <c r="E126" s="31">
         <v>0</v>
       </c>
       <c r="F126" s="13"/>
-      <c r="G126" s="16"/>
-      <c r="H126" s="16"/>
-      <c r="I126" s="10"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A127" s="28">
+      <c r="G126" s="61"/>
+      <c r="J126" s="10"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127" s="26">
         <v>44777</v>
       </c>
-      <c r="B127" s="34">
+      <c r="B127" s="32">
         <v>0</v>
       </c>
       <c r="C127" s="2">
@@ -4139,19 +4244,18 @@
       <c r="D127" s="2">
         <v>0</v>
       </c>
-      <c r="E127" s="33">
+      <c r="E127" s="31">
         <v>0</v>
       </c>
       <c r="F127" s="13"/>
-      <c r="G127" s="16"/>
-      <c r="H127" s="16"/>
-      <c r="I127" s="10"/>
-    </row>
-    <row r="128" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A128" s="53">
+      <c r="G127" s="61"/>
+      <c r="J127" s="10"/>
+    </row>
+    <row r="128" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A128" s="51">
         <v>44778</v>
       </c>
-      <c r="B128" s="34">
+      <c r="B128" s="32">
         <v>0</v>
       </c>
       <c r="C128" s="2">
@@ -4160,27 +4264,30 @@
       <c r="D128" s="1">
         <v>1</v>
       </c>
-      <c r="E128" s="33">
-        <v>0</v>
-      </c>
-      <c r="F128" s="45" t="s">
+      <c r="E128" s="31">
+        <v>0</v>
+      </c>
+      <c r="F128" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G128" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H128" s="54" t="s">
+      <c r="G128" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="H128" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I128" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="I128" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A129" s="53">
+      <c r="J128" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A129" s="51">
         <v>44779</v>
       </c>
-      <c r="B129" s="34">
+      <c r="B129" s="32">
         <v>0</v>
       </c>
       <c r="C129" s="2">
@@ -4189,27 +4296,30 @@
       <c r="D129" s="1">
         <v>1</v>
       </c>
-      <c r="E129" s="33">
-        <v>0</v>
-      </c>
-      <c r="F129" s="45" t="s">
+      <c r="E129" s="31">
+        <v>0</v>
+      </c>
+      <c r="F129" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G129" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H129" s="54" t="s">
+      <c r="G129" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="H129" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I129" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="I129" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A130" s="53">
+      <c r="J129" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" s="51">
         <v>44780</v>
       </c>
-      <c r="B130" s="34">
+      <c r="B130" s="32">
         <v>0</v>
       </c>
       <c r="C130" s="2">
@@ -4218,27 +4328,30 @@
       <c r="D130" s="1">
         <v>1</v>
       </c>
-      <c r="E130" s="33">
+      <c r="E130" s="31">
         <v>0</v>
       </c>
       <c r="F130" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G130" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H130" s="52" t="s">
+      <c r="G130" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="H130" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I130" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="I130" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A131" s="28">
+      <c r="J130" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" s="26">
         <v>44781</v>
       </c>
-      <c r="B131" s="34">
+      <c r="B131" s="32">
         <v>0</v>
       </c>
       <c r="C131" s="2">
@@ -4247,19 +4360,18 @@
       <c r="D131" s="7">
         <v>0</v>
       </c>
-      <c r="E131" s="33">
+      <c r="E131" s="31">
         <v>0</v>
       </c>
       <c r="F131" s="13"/>
-      <c r="G131" s="16"/>
-      <c r="H131" s="16"/>
-      <c r="I131" s="10"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A132" s="28">
+      <c r="G131" s="61"/>
+      <c r="J131" s="10"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" s="26">
         <v>44782</v>
       </c>
-      <c r="B132" s="34">
+      <c r="B132" s="32">
         <v>0</v>
       </c>
       <c r="C132" s="2">
@@ -4268,19 +4380,18 @@
       <c r="D132" s="2">
         <v>0</v>
       </c>
-      <c r="E132" s="33">
+      <c r="E132" s="31">
         <v>0</v>
       </c>
       <c r="F132" s="13"/>
-      <c r="G132" s="16"/>
-      <c r="H132" s="16"/>
-      <c r="I132" s="10"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A133" s="28">
+      <c r="G132" s="61"/>
+      <c r="J132" s="10"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" s="26">
         <v>44783</v>
       </c>
-      <c r="B133" s="34">
+      <c r="B133" s="32">
         <v>0</v>
       </c>
       <c r="C133" s="2">
@@ -4289,19 +4400,18 @@
       <c r="D133" s="2">
         <v>0</v>
       </c>
-      <c r="E133" s="33">
+      <c r="E133" s="31">
         <v>0</v>
       </c>
       <c r="F133" s="13"/>
-      <c r="G133" s="16"/>
-      <c r="H133" s="16"/>
-      <c r="I133" s="10"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A134" s="28">
+      <c r="G133" s="61"/>
+      <c r="J133" s="10"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" s="26">
         <v>44784</v>
       </c>
-      <c r="B134" s="34">
+      <c r="B134" s="32">
         <v>0</v>
       </c>
       <c r="C134" s="2">
@@ -4310,19 +4420,18 @@
       <c r="D134" s="2">
         <v>0</v>
       </c>
-      <c r="E134" s="33">
+      <c r="E134" s="31">
         <v>0</v>
       </c>
       <c r="F134" s="13"/>
-      <c r="G134" s="16"/>
-      <c r="H134" s="16"/>
-      <c r="I134" s="10"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A135" s="28">
+      <c r="G134" s="61"/>
+      <c r="J134" s="10"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" s="26">
         <v>44785</v>
       </c>
-      <c r="B135" s="34">
+      <c r="B135" s="32">
         <v>0</v>
       </c>
       <c r="C135" s="2">
@@ -4331,19 +4440,18 @@
       <c r="D135" s="2">
         <v>0</v>
       </c>
-      <c r="E135" s="33">
+      <c r="E135" s="31">
         <v>0</v>
       </c>
       <c r="F135" s="13"/>
-      <c r="G135" s="16"/>
-      <c r="H135" s="16"/>
-      <c r="I135" s="10"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A136" s="28">
+      <c r="G135" s="61"/>
+      <c r="J135" s="10"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" s="26">
         <v>44786</v>
       </c>
-      <c r="B136" s="34">
+      <c r="B136" s="32">
         <v>0</v>
       </c>
       <c r="C136" s="2">
@@ -4352,19 +4460,18 @@
       <c r="D136" s="2">
         <v>0</v>
       </c>
-      <c r="E136" s="33">
+      <c r="E136" s="31">
         <v>0</v>
       </c>
       <c r="F136" s="13"/>
-      <c r="G136" s="16"/>
-      <c r="H136" s="16"/>
-      <c r="I136" s="10"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A137" s="53">
+      <c r="G136" s="61"/>
+      <c r="J136" s="10"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" s="51">
         <v>44787</v>
       </c>
-      <c r="B137" s="32">
+      <c r="B137" s="30">
         <v>1</v>
       </c>
       <c r="C137" s="2">
@@ -4373,27 +4480,30 @@
       <c r="D137" s="2">
         <v>0</v>
       </c>
-      <c r="E137" s="33">
-        <v>0</v>
-      </c>
-      <c r="F137" s="45" t="s">
+      <c r="E137" s="31">
+        <v>0</v>
+      </c>
+      <c r="F137" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G137" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H137" s="25" t="s">
+      <c r="G137" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="H137" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I137" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I137" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A138" s="53">
+      <c r="J137" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" s="51">
         <v>44788</v>
       </c>
-      <c r="B138" s="32">
+      <c r="B138" s="30">
         <v>1</v>
       </c>
       <c r="C138" s="2">
@@ -4402,27 +4512,30 @@
       <c r="D138" s="2">
         <v>0</v>
       </c>
-      <c r="E138" s="33">
-        <v>0</v>
-      </c>
-      <c r="F138" s="45" t="s">
+      <c r="E138" s="31">
+        <v>0</v>
+      </c>
+      <c r="F138" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G138" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H138" s="25" t="s">
+      <c r="G138" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="H138" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I138" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I138" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A139" s="53">
+      <c r="J138" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" s="51">
         <v>44789</v>
       </c>
-      <c r="B139" s="32">
+      <c r="B139" s="30">
         <v>1</v>
       </c>
       <c r="C139" s="2">
@@ -4431,27 +4544,30 @@
       <c r="D139" s="2">
         <v>0</v>
       </c>
-      <c r="E139" s="33">
+      <c r="E139" s="31">
         <v>0</v>
       </c>
       <c r="F139" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G139" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H139" s="25" t="s">
+      <c r="G139" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="H139" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I139" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I139" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A140" s="28">
+      <c r="J139" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" s="26">
         <v>44790</v>
       </c>
-      <c r="B140" s="34">
+      <c r="B140" s="32">
         <v>0</v>
       </c>
       <c r="C140" s="2">
@@ -4460,19 +4576,18 @@
       <c r="D140" s="2">
         <v>0</v>
       </c>
-      <c r="E140" s="36">
+      <c r="E140" s="34">
         <v>0</v>
       </c>
       <c r="F140" s="13"/>
-      <c r="G140" s="16"/>
-      <c r="H140" s="16"/>
-      <c r="I140" s="10"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A141" s="28">
+      <c r="G140" s="61"/>
+      <c r="J140" s="10"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" s="26">
         <v>44791</v>
       </c>
-      <c r="B141" s="34">
+      <c r="B141" s="32">
         <v>0</v>
       </c>
       <c r="C141" s="2">
@@ -4481,19 +4596,18 @@
       <c r="D141" s="2">
         <v>0</v>
       </c>
-      <c r="E141" s="33">
+      <c r="E141" s="31">
         <v>0</v>
       </c>
       <c r="F141" s="13"/>
-      <c r="G141" s="16"/>
-      <c r="H141" s="16"/>
-      <c r="I141" s="10"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A142" s="28">
+      <c r="G141" s="61"/>
+      <c r="J141" s="10"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" s="26">
         <v>44792</v>
       </c>
-      <c r="B142" s="34">
+      <c r="B142" s="32">
         <v>0</v>
       </c>
       <c r="C142" s="2">
@@ -4502,19 +4616,18 @@
       <c r="D142" s="2">
         <v>0</v>
       </c>
-      <c r="E142" s="33">
+      <c r="E142" s="31">
         <v>0</v>
       </c>
       <c r="F142" s="13"/>
-      <c r="G142" s="16"/>
-      <c r="H142" s="16"/>
-      <c r="I142" s="10"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A143" s="28">
+      <c r="G142" s="61"/>
+      <c r="J142" s="10"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" s="26">
         <v>44793</v>
       </c>
-      <c r="B143" s="34">
+      <c r="B143" s="32">
         <v>0</v>
       </c>
       <c r="C143" s="2">
@@ -4523,19 +4636,18 @@
       <c r="D143" s="2">
         <v>0</v>
       </c>
-      <c r="E143" s="33">
+      <c r="E143" s="31">
         <v>0</v>
       </c>
       <c r="F143" s="13"/>
-      <c r="G143" s="16"/>
-      <c r="H143" s="16"/>
-      <c r="I143" s="10"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A144" s="28">
+      <c r="G143" s="61"/>
+      <c r="J143" s="10"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144" s="26">
         <v>44794</v>
       </c>
-      <c r="B144" s="34">
+      <c r="B144" s="32">
         <v>0</v>
       </c>
       <c r="C144" s="2">
@@ -4544,19 +4656,18 @@
       <c r="D144" s="2">
         <v>0</v>
       </c>
-      <c r="E144" s="33">
+      <c r="E144" s="31">
         <v>0</v>
       </c>
       <c r="F144" s="13"/>
-      <c r="G144" s="16"/>
-      <c r="H144" s="16"/>
-      <c r="I144" s="10"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A145" s="28">
+      <c r="G144" s="61"/>
+      <c r="J144" s="10"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145" s="26">
         <v>44795</v>
       </c>
-      <c r="B145" s="34">
+      <c r="B145" s="32">
         <v>0</v>
       </c>
       <c r="C145" s="2">
@@ -4565,19 +4676,18 @@
       <c r="D145" s="2">
         <v>0</v>
       </c>
-      <c r="E145" s="33">
+      <c r="E145" s="31">
         <v>0</v>
       </c>
       <c r="F145" s="13"/>
-      <c r="G145" s="16"/>
-      <c r="H145" s="16"/>
-      <c r="I145" s="10"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A146" s="53">
+      <c r="G145" s="61"/>
+      <c r="J145" s="10"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146" s="51">
         <v>44796</v>
       </c>
-      <c r="B146" s="32">
+      <c r="B146" s="30">
         <v>1</v>
       </c>
       <c r="C146" s="2">
@@ -4586,27 +4696,30 @@
       <c r="D146" s="2">
         <v>0</v>
       </c>
-      <c r="E146" s="33">
+      <c r="E146" s="31">
         <v>0</v>
       </c>
       <c r="F146" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G146" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H146" s="52" t="s">
+      <c r="G146" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="H146" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I146" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="I146" s="49" t="s">
+      <c r="J146" s="47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A147" s="53">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" s="51">
         <v>44797</v>
       </c>
-      <c r="B147" s="32">
+      <c r="B147" s="30">
         <v>1</v>
       </c>
       <c r="C147" s="2">
@@ -4615,27 +4728,30 @@
       <c r="D147" s="2">
         <v>0</v>
       </c>
-      <c r="E147" s="33">
-        <v>0</v>
-      </c>
-      <c r="F147" s="45" t="s">
+      <c r="E147" s="31">
+        <v>0</v>
+      </c>
+      <c r="F147" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G147" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H147" s="25" t="s">
+      <c r="G147" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="H147" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I147" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="I147" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A148" s="53">
+      <c r="J147" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148" s="51">
         <v>44798</v>
       </c>
-      <c r="B148" s="32">
+      <c r="B148" s="30">
         <v>1</v>
       </c>
       <c r="C148" s="2">
@@ -4644,27 +4760,30 @@
       <c r="D148" s="2">
         <v>0</v>
       </c>
-      <c r="E148" s="33">
-        <v>0</v>
-      </c>
-      <c r="F148" s="45" t="s">
+      <c r="E148" s="31">
+        <v>0</v>
+      </c>
+      <c r="F148" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G148" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H148" s="25" t="s">
+      <c r="G148" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="H148" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I148" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="I148" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A149" s="28">
+      <c r="J148" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149" s="26">
         <v>44799</v>
       </c>
-      <c r="B149" s="34">
+      <c r="B149" s="32">
         <v>0</v>
       </c>
       <c r="C149" s="2">
@@ -4673,19 +4792,18 @@
       <c r="D149" s="2">
         <v>0</v>
       </c>
-      <c r="E149" s="33">
+      <c r="E149" s="31">
         <v>0</v>
       </c>
       <c r="F149" s="13"/>
-      <c r="G149" s="16"/>
-      <c r="H149" s="16"/>
-      <c r="I149" s="10"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A150" s="28">
+      <c r="G149" s="61"/>
+      <c r="J149" s="10"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150" s="26">
         <v>44800</v>
       </c>
-      <c r="B150" s="34">
+      <c r="B150" s="32">
         <v>0</v>
       </c>
       <c r="C150" s="2">
@@ -4694,19 +4812,18 @@
       <c r="D150" s="2">
         <v>0</v>
       </c>
-      <c r="E150" s="33">
+      <c r="E150" s="31">
         <v>0</v>
       </c>
       <c r="F150" s="13"/>
-      <c r="G150" s="16"/>
-      <c r="H150" s="16"/>
-      <c r="I150" s="10"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A151" s="28">
+      <c r="G150" s="61"/>
+      <c r="J150" s="10"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A151" s="26">
         <v>44801</v>
       </c>
-      <c r="B151" s="34">
+      <c r="B151" s="32">
         <v>0</v>
       </c>
       <c r="C151" s="2">
@@ -4715,19 +4832,18 @@
       <c r="D151" s="2">
         <v>0</v>
       </c>
-      <c r="E151" s="33">
+      <c r="E151" s="31">
         <v>0</v>
       </c>
       <c r="F151" s="13"/>
-      <c r="G151" s="16"/>
-      <c r="H151" s="16"/>
-      <c r="I151" s="10"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A152" s="28">
+      <c r="G151" s="61"/>
+      <c r="J151" s="10"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A152" s="26">
         <v>44802</v>
       </c>
-      <c r="B152" s="34">
+      <c r="B152" s="32">
         <v>0</v>
       </c>
       <c r="C152" s="2">
@@ -4736,19 +4852,18 @@
       <c r="D152" s="2">
         <v>0</v>
       </c>
-      <c r="E152" s="33">
+      <c r="E152" s="31">
         <v>0</v>
       </c>
       <c r="F152" s="13"/>
-      <c r="G152" s="16"/>
-      <c r="H152" s="16"/>
-      <c r="I152" s="10"/>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A153" s="28">
+      <c r="G152" s="61"/>
+      <c r="J152" s="10"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A153" s="26">
         <v>44803</v>
       </c>
-      <c r="B153" s="34">
+      <c r="B153" s="32">
         <v>0</v>
       </c>
       <c r="C153" s="2">
@@ -4757,19 +4872,18 @@
       <c r="D153" s="2">
         <v>0</v>
       </c>
-      <c r="E153" s="33">
+      <c r="E153" s="31">
         <v>0</v>
       </c>
       <c r="F153" s="13"/>
-      <c r="G153" s="16"/>
-      <c r="H153" s="16"/>
-      <c r="I153" s="10"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A154" s="28">
+      <c r="G153" s="61"/>
+      <c r="J153" s="10"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A154" s="26">
         <v>44804</v>
       </c>
-      <c r="B154" s="34">
+      <c r="B154" s="32">
         <v>0</v>
       </c>
       <c r="C154" s="2">
@@ -4778,19 +4892,18 @@
       <c r="D154" s="2">
         <v>0</v>
       </c>
-      <c r="E154" s="33">
+      <c r="E154" s="31">
         <v>0</v>
       </c>
       <c r="F154" s="13"/>
-      <c r="G154" s="16"/>
-      <c r="H154" s="16"/>
-      <c r="I154" s="10"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A155" s="53">
+      <c r="G154" s="61"/>
+      <c r="J154" s="10"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A155" s="51">
         <v>44805</v>
       </c>
-      <c r="B155" s="34">
+      <c r="B155" s="32">
         <v>0</v>
       </c>
       <c r="C155" s="1">
@@ -4799,27 +4912,30 @@
       <c r="D155" s="2">
         <v>0</v>
       </c>
-      <c r="E155" s="33">
-        <v>0</v>
-      </c>
-      <c r="F155" s="45" t="s">
+      <c r="E155" s="31">
+        <v>0</v>
+      </c>
+      <c r="F155" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G155" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H155" s="25" t="s">
+      <c r="G155" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="H155" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I155" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I155" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A156" s="53">
+      <c r="J155" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A156" s="51">
         <v>44806</v>
       </c>
-      <c r="B156" s="34">
+      <c r="B156" s="32">
         <v>0</v>
       </c>
       <c r="C156" s="1">
@@ -4828,27 +4944,30 @@
       <c r="D156" s="2">
         <v>0</v>
       </c>
-      <c r="E156" s="33">
-        <v>0</v>
-      </c>
-      <c r="F156" s="45" t="s">
+      <c r="E156" s="31">
+        <v>0</v>
+      </c>
+      <c r="F156" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G156" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H156" s="25" t="s">
+      <c r="G156" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="H156" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I156" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I156" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A157" s="53">
+      <c r="J156" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A157" s="51">
         <v>44807</v>
       </c>
-      <c r="B157" s="34">
+      <c r="B157" s="32">
         <v>0</v>
       </c>
       <c r="C157" s="1">
@@ -4857,27 +4976,30 @@
       <c r="D157" s="2">
         <v>0</v>
       </c>
-      <c r="E157" s="33">
+      <c r="E157" s="31">
         <v>0</v>
       </c>
       <c r="F157" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G157" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H157" s="25" t="s">
+      <c r="G157" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="H157" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I157" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I157" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A158" s="28">
+      <c r="J157" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A158" s="26">
         <v>44808</v>
       </c>
-      <c r="B158" s="34">
+      <c r="B158" s="32">
         <v>0</v>
       </c>
       <c r="C158" s="2">
@@ -4886,19 +5008,18 @@
       <c r="D158" s="2">
         <v>0</v>
       </c>
-      <c r="E158" s="33">
+      <c r="E158" s="31">
         <v>0</v>
       </c>
       <c r="F158" s="13"/>
-      <c r="G158" s="16"/>
-      <c r="H158" s="16"/>
-      <c r="I158" s="10"/>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A159" s="28">
+      <c r="G158" s="61"/>
+      <c r="J158" s="10"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A159" s="26">
         <v>44809</v>
       </c>
-      <c r="B159" s="34">
+      <c r="B159" s="32">
         <v>0</v>
       </c>
       <c r="C159" s="2">
@@ -4907,19 +5028,18 @@
       <c r="D159" s="2">
         <v>0</v>
       </c>
-      <c r="E159" s="33">
+      <c r="E159" s="31">
         <v>0</v>
       </c>
       <c r="F159" s="13"/>
-      <c r="G159" s="16"/>
-      <c r="H159" s="16"/>
-      <c r="I159" s="10"/>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A160" s="28">
+      <c r="G159" s="61"/>
+      <c r="J159" s="10"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A160" s="26">
         <v>44810</v>
       </c>
-      <c r="B160" s="34">
+      <c r="B160" s="32">
         <v>0</v>
       </c>
       <c r="C160" s="2">
@@ -4928,19 +5048,18 @@
       <c r="D160" s="2">
         <v>0</v>
       </c>
-      <c r="E160" s="33">
+      <c r="E160" s="31">
         <v>0</v>
       </c>
       <c r="F160" s="13"/>
-      <c r="G160" s="16"/>
-      <c r="H160" s="16"/>
-      <c r="I160" s="10"/>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A161" s="28">
+      <c r="G160" s="61"/>
+      <c r="J160" s="10"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A161" s="26">
         <v>44811</v>
       </c>
-      <c r="B161" s="34">
+      <c r="B161" s="32">
         <v>0</v>
       </c>
       <c r="C161" s="2">
@@ -4949,19 +5068,18 @@
       <c r="D161" s="2">
         <v>0</v>
       </c>
-      <c r="E161" s="33">
+      <c r="E161" s="31">
         <v>0</v>
       </c>
       <c r="F161" s="13"/>
-      <c r="G161" s="16"/>
-      <c r="H161" s="16"/>
-      <c r="I161" s="10"/>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A162" s="28">
+      <c r="G161" s="61"/>
+      <c r="J161" s="10"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A162" s="26">
         <v>44812</v>
       </c>
-      <c r="B162" s="34">
+      <c r="B162" s="32">
         <v>0</v>
       </c>
       <c r="C162" s="2">
@@ -4970,19 +5088,18 @@
       <c r="D162" s="2">
         <v>0</v>
       </c>
-      <c r="E162" s="33">
+      <c r="E162" s="31">
         <v>0</v>
       </c>
       <c r="F162" s="13"/>
-      <c r="G162" s="16"/>
-      <c r="H162" s="16"/>
-      <c r="I162" s="10"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A163" s="28">
+      <c r="G162" s="61"/>
+      <c r="J162" s="10"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A163" s="26">
         <v>44813</v>
       </c>
-      <c r="B163" s="34">
+      <c r="B163" s="32">
         <v>0</v>
       </c>
       <c r="C163" s="2">
@@ -4991,19 +5108,18 @@
       <c r="D163" s="2">
         <v>0</v>
       </c>
-      <c r="E163" s="33">
+      <c r="E163" s="31">
         <v>0</v>
       </c>
       <c r="F163" s="13"/>
-      <c r="G163" s="16"/>
-      <c r="H163" s="16"/>
-      <c r="I163" s="10"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A164" s="28">
+      <c r="G163" s="61"/>
+      <c r="J163" s="10"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A164" s="26">
         <v>44814</v>
       </c>
-      <c r="B164" s="34">
+      <c r="B164" s="32">
         <v>0</v>
       </c>
       <c r="C164" s="2">
@@ -5012,27 +5128,30 @@
       <c r="D164" s="1">
         <v>1</v>
       </c>
-      <c r="E164" s="33">
-        <v>0</v>
-      </c>
-      <c r="F164" s="45" t="s">
+      <c r="E164" s="31">
+        <v>0</v>
+      </c>
+      <c r="F164" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G164" s="46" t="s">
+      <c r="G164" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="H164" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H164" s="46" t="s">
+      <c r="I164" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="I164" s="56" t="s">
+      <c r="J164" s="54" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A165" s="28">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A165" s="26">
         <v>44815</v>
       </c>
-      <c r="B165" s="34">
+      <c r="B165" s="32">
         <v>0</v>
       </c>
       <c r="C165" s="2">
@@ -5041,27 +5160,30 @@
       <c r="D165" s="1">
         <v>1</v>
       </c>
-      <c r="E165" s="33">
-        <v>0</v>
-      </c>
-      <c r="F165" s="45" t="s">
+      <c r="E165" s="31">
+        <v>0</v>
+      </c>
+      <c r="F165" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G165" s="46" t="s">
+      <c r="G165" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="H165" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H165" s="46" t="s">
+      <c r="I165" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="I165" s="56" t="s">
+      <c r="J165" s="54" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A166" s="28">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A166" s="26">
         <v>44816</v>
       </c>
-      <c r="B166" s="34">
+      <c r="B166" s="32">
         <v>0</v>
       </c>
       <c r="C166" s="2">
@@ -5070,19 +5192,18 @@
       <c r="D166" s="2">
         <v>0</v>
       </c>
-      <c r="E166" s="33">
+      <c r="E166" s="31">
         <v>0</v>
       </c>
       <c r="F166" s="13"/>
-      <c r="G166" s="16"/>
-      <c r="H166" s="16"/>
-      <c r="I166" s="10"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A167" s="28">
+      <c r="G166" s="61"/>
+      <c r="J166" s="10"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A167" s="26">
         <v>44817</v>
       </c>
-      <c r="B167" s="34">
+      <c r="B167" s="32">
         <v>0</v>
       </c>
       <c r="C167" s="2">
@@ -5091,19 +5212,18 @@
       <c r="D167" s="2">
         <v>0</v>
       </c>
-      <c r="E167" s="33">
+      <c r="E167" s="31">
         <v>0</v>
       </c>
       <c r="F167" s="13"/>
-      <c r="G167" s="16"/>
-      <c r="H167" s="16"/>
-      <c r="I167" s="10"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A168" s="28">
+      <c r="G167" s="61"/>
+      <c r="J167" s="10"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A168" s="26">
         <v>44818</v>
       </c>
-      <c r="B168" s="34">
+      <c r="B168" s="32">
         <v>0</v>
       </c>
       <c r="C168" s="2">
@@ -5112,19 +5232,18 @@
       <c r="D168" s="2">
         <v>0</v>
       </c>
-      <c r="E168" s="33">
+      <c r="E168" s="31">
         <v>0</v>
       </c>
       <c r="F168" s="13"/>
-      <c r="G168" s="16"/>
-      <c r="H168" s="16"/>
-      <c r="I168" s="10"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A169" s="28">
+      <c r="G168" s="61"/>
+      <c r="J168" s="10"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A169" s="26">
         <v>44819</v>
       </c>
-      <c r="B169" s="34">
+      <c r="B169" s="32">
         <v>0</v>
       </c>
       <c r="C169" s="2">
@@ -5133,19 +5252,18 @@
       <c r="D169" s="2">
         <v>0</v>
       </c>
-      <c r="E169" s="33">
+      <c r="E169" s="31">
         <v>0</v>
       </c>
       <c r="F169" s="13"/>
-      <c r="G169" s="16"/>
-      <c r="H169" s="16"/>
-      <c r="I169" s="10"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A170" s="28">
+      <c r="G169" s="61"/>
+      <c r="J169" s="10"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A170" s="26">
         <v>44820</v>
       </c>
-      <c r="B170" s="34">
+      <c r="B170" s="32">
         <v>0</v>
       </c>
       <c r="C170" s="2">
@@ -5154,19 +5272,18 @@
       <c r="D170" s="2">
         <v>0</v>
       </c>
-      <c r="E170" s="33">
+      <c r="E170" s="31">
         <v>0</v>
       </c>
       <c r="F170" s="13"/>
-      <c r="G170" s="16"/>
-      <c r="H170" s="16"/>
-      <c r="I170" s="10"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A171" s="28">
+      <c r="G170" s="61"/>
+      <c r="J170" s="10"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A171" s="26">
         <v>44821</v>
       </c>
-      <c r="B171" s="34">
+      <c r="B171" s="32">
         <v>0</v>
       </c>
       <c r="C171" s="2">
@@ -5175,19 +5292,18 @@
       <c r="D171" s="2">
         <v>0</v>
       </c>
-      <c r="E171" s="33">
+      <c r="E171" s="31">
         <v>0</v>
       </c>
       <c r="F171" s="13"/>
-      <c r="G171" s="16"/>
-      <c r="H171" s="16"/>
-      <c r="I171" s="10"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A172" s="28">
+      <c r="G171" s="61"/>
+      <c r="J171" s="10"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A172" s="26">
         <v>44822</v>
       </c>
-      <c r="B172" s="34">
+      <c r="B172" s="32">
         <v>0</v>
       </c>
       <c r="C172" s="2">
@@ -5196,19 +5312,18 @@
       <c r="D172" s="2">
         <v>0</v>
       </c>
-      <c r="E172" s="33">
+      <c r="E172" s="31">
         <v>0</v>
       </c>
       <c r="F172" s="13"/>
-      <c r="G172" s="16"/>
-      <c r="H172" s="16"/>
-      <c r="I172" s="10"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A173" s="28">
+      <c r="G172" s="61"/>
+      <c r="J172" s="10"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A173" s="26">
         <v>44823</v>
       </c>
-      <c r="B173" s="32">
+      <c r="B173" s="30">
         <v>1</v>
       </c>
       <c r="C173" s="2">
@@ -5217,27 +5332,30 @@
       <c r="D173" s="2">
         <v>0</v>
       </c>
-      <c r="E173" s="33">
-        <v>0</v>
-      </c>
-      <c r="F173" s="45" t="s">
+      <c r="E173" s="31">
+        <v>0</v>
+      </c>
+      <c r="F173" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G173" s="46" t="s">
+      <c r="G173" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="H173" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H173" s="46" t="s">
+      <c r="I173" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="I173" s="56" t="s">
+      <c r="J173" s="54" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A174" s="28">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A174" s="26">
         <v>44824</v>
       </c>
-      <c r="B174" s="32">
+      <c r="B174" s="30">
         <v>1</v>
       </c>
       <c r="C174" s="2">
@@ -5246,27 +5364,30 @@
       <c r="D174" s="2">
         <v>0</v>
       </c>
-      <c r="E174" s="33">
-        <v>0</v>
-      </c>
-      <c r="F174" s="45" t="s">
+      <c r="E174" s="31">
+        <v>0</v>
+      </c>
+      <c r="F174" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G174" s="46" t="s">
+      <c r="G174" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="H174" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H174" s="46" t="s">
+      <c r="I174" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="I174" s="56" t="s">
+      <c r="J174" s="54" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A175" s="28">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A175" s="26">
         <v>44825</v>
       </c>
-      <c r="B175" s="34">
+      <c r="B175" s="32">
         <v>0</v>
       </c>
       <c r="C175" s="2">
@@ -5275,19 +5396,18 @@
       <c r="D175" s="2">
         <v>0</v>
       </c>
-      <c r="E175" s="33">
+      <c r="E175" s="31">
         <v>0</v>
       </c>
       <c r="F175" s="13"/>
-      <c r="G175" s="16"/>
-      <c r="H175" s="16"/>
-      <c r="I175" s="10"/>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A176" s="28">
+      <c r="G175" s="61"/>
+      <c r="J175" s="10"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A176" s="26">
         <v>44826</v>
       </c>
-      <c r="B176" s="34">
+      <c r="B176" s="32">
         <v>0</v>
       </c>
       <c r="C176" s="2">
@@ -5296,19 +5416,18 @@
       <c r="D176" s="2">
         <v>0</v>
       </c>
-      <c r="E176" s="33">
+      <c r="E176" s="31">
         <v>0</v>
       </c>
       <c r="F176" s="13"/>
-      <c r="G176" s="16"/>
-      <c r="H176" s="16"/>
-      <c r="I176" s="10"/>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A177" s="28">
+      <c r="G176" s="61"/>
+      <c r="J176" s="10"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A177" s="26">
         <v>44827</v>
       </c>
-      <c r="B177" s="34">
+      <c r="B177" s="32">
         <v>0</v>
       </c>
       <c r="C177" s="2">
@@ -5317,19 +5436,18 @@
       <c r="D177" s="2">
         <v>0</v>
       </c>
-      <c r="E177" s="33">
+      <c r="E177" s="31">
         <v>0</v>
       </c>
       <c r="F177" s="13"/>
-      <c r="G177" s="16"/>
-      <c r="H177" s="16"/>
-      <c r="I177" s="10"/>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A178" s="28">
+      <c r="G177" s="61"/>
+      <c r="J177" s="10"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A178" s="26">
         <v>44828</v>
       </c>
-      <c r="B178" s="34">
+      <c r="B178" s="32">
         <v>0</v>
       </c>
       <c r="C178" s="2">
@@ -5338,19 +5456,18 @@
       <c r="D178" s="2">
         <v>0</v>
       </c>
-      <c r="E178" s="33">
+      <c r="E178" s="31">
         <v>0</v>
       </c>
       <c r="F178" s="13"/>
-      <c r="G178" s="16"/>
-      <c r="H178" s="16"/>
-      <c r="I178" s="10"/>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A179" s="28">
+      <c r="G178" s="61"/>
+      <c r="J178" s="10"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A179" s="26">
         <v>44829</v>
       </c>
-      <c r="B179" s="34">
+      <c r="B179" s="32">
         <v>0</v>
       </c>
       <c r="C179" s="2">
@@ -5359,19 +5476,18 @@
       <c r="D179" s="2">
         <v>0</v>
       </c>
-      <c r="E179" s="33">
+      <c r="E179" s="31">
         <v>0</v>
       </c>
       <c r="F179" s="13"/>
-      <c r="G179" s="16"/>
-      <c r="H179" s="16"/>
-      <c r="I179" s="10"/>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A180" s="28">
+      <c r="G179" s="61"/>
+      <c r="J179" s="10"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A180" s="26">
         <v>44830</v>
       </c>
-      <c r="B180" s="34">
+      <c r="B180" s="32">
         <v>0</v>
       </c>
       <c r="C180" s="2">
@@ -5380,19 +5496,18 @@
       <c r="D180" s="2">
         <v>0</v>
       </c>
-      <c r="E180" s="33">
+      <c r="E180" s="31">
         <v>0</v>
       </c>
       <c r="F180" s="13"/>
-      <c r="G180" s="16"/>
-      <c r="H180" s="16"/>
-      <c r="I180" s="10"/>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A181" s="28">
+      <c r="G180" s="61"/>
+      <c r="J180" s="10"/>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A181" s="26">
         <v>44831</v>
       </c>
-      <c r="B181" s="34">
+      <c r="B181" s="32">
         <v>0</v>
       </c>
       <c r="C181" s="2">
@@ -5401,19 +5516,18 @@
       <c r="D181" s="2">
         <v>0</v>
       </c>
-      <c r="E181" s="33">
+      <c r="E181" s="31">
         <v>0</v>
       </c>
       <c r="F181" s="13"/>
-      <c r="G181" s="16"/>
-      <c r="H181" s="16"/>
-      <c r="I181" s="10"/>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A182" s="28">
+      <c r="G181" s="61"/>
+      <c r="J181" s="10"/>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A182" s="26">
         <v>44832</v>
       </c>
-      <c r="B182" s="32">
+      <c r="B182" s="30">
         <v>1</v>
       </c>
       <c r="C182" s="2">
@@ -5422,27 +5536,30 @@
       <c r="D182" s="2">
         <v>0</v>
       </c>
-      <c r="E182" s="33">
-        <v>0</v>
-      </c>
-      <c r="F182" s="45" t="s">
+      <c r="E182" s="31">
+        <v>0</v>
+      </c>
+      <c r="F182" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G182" s="46" t="s">
+      <c r="G182" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="H182" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H182" s="55" t="s">
+      <c r="I182" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="I182" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A183" s="28">
+      <c r="J182" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A183" s="26">
         <v>44833</v>
       </c>
-      <c r="B183" s="32">
+      <c r="B183" s="30">
         <v>1</v>
       </c>
       <c r="C183" s="2">
@@ -5451,27 +5568,30 @@
       <c r="D183" s="2">
         <v>0</v>
       </c>
-      <c r="E183" s="33">
-        <v>0</v>
-      </c>
-      <c r="F183" s="45" t="s">
+      <c r="E183" s="31">
+        <v>0</v>
+      </c>
+      <c r="F183" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G183" s="46" t="s">
+      <c r="G183" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="H183" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H183" s="55" t="s">
+      <c r="I183" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="I183" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A184" s="28">
+      <c r="J183" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A184" s="26">
         <v>44834</v>
       </c>
-      <c r="B184" s="34">
+      <c r="B184" s="32">
         <v>0</v>
       </c>
       <c r="C184" s="2">
@@ -5480,19 +5600,18 @@
       <c r="D184" s="2">
         <v>0</v>
       </c>
-      <c r="E184" s="33">
+      <c r="E184" s="31">
         <v>0</v>
       </c>
       <c r="F184" s="13"/>
-      <c r="G184" s="16"/>
-      <c r="H184" s="16"/>
-      <c r="I184" s="10"/>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A185" s="28">
+      <c r="G184" s="61"/>
+      <c r="J184" s="10"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A185" s="26">
         <v>44835</v>
       </c>
-      <c r="B185" s="34">
+      <c r="B185" s="32">
         <v>0</v>
       </c>
       <c r="C185" s="2">
@@ -5501,19 +5620,18 @@
       <c r="D185" s="2">
         <v>0</v>
       </c>
-      <c r="E185" s="33">
+      <c r="E185" s="31">
         <v>0</v>
       </c>
       <c r="F185" s="13"/>
-      <c r="G185" s="16"/>
-      <c r="H185" s="16"/>
-      <c r="I185" s="10"/>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A186" s="28">
+      <c r="G185" s="61"/>
+      <c r="J185" s="10"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A186" s="26">
         <v>44836</v>
       </c>
-      <c r="B186" s="34">
+      <c r="B186" s="32">
         <v>0</v>
       </c>
       <c r="C186" s="2">
@@ -5522,19 +5640,18 @@
       <c r="D186" s="2">
         <v>0</v>
       </c>
-      <c r="E186" s="33">
+      <c r="E186" s="31">
         <v>0</v>
       </c>
       <c r="F186" s="13"/>
-      <c r="G186" s="16"/>
-      <c r="H186" s="16"/>
-      <c r="I186" s="10"/>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A187" s="28">
+      <c r="G186" s="61"/>
+      <c r="J186" s="10"/>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A187" s="26">
         <v>44837</v>
       </c>
-      <c r="B187" s="34">
+      <c r="B187" s="32">
         <v>0</v>
       </c>
       <c r="C187" s="2">
@@ -5543,19 +5660,18 @@
       <c r="D187" s="2">
         <v>0</v>
       </c>
-      <c r="E187" s="33">
+      <c r="E187" s="31">
         <v>0</v>
       </c>
       <c r="F187" s="13"/>
-      <c r="G187" s="16"/>
-      <c r="H187" s="16"/>
-      <c r="I187" s="10"/>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A188" s="28">
+      <c r="G187" s="61"/>
+      <c r="J187" s="10"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A188" s="26">
         <v>44838</v>
       </c>
-      <c r="B188" s="34">
+      <c r="B188" s="32">
         <v>0</v>
       </c>
       <c r="C188" s="2">
@@ -5564,19 +5680,18 @@
       <c r="D188" s="2">
         <v>0</v>
       </c>
-      <c r="E188" s="33">
+      <c r="E188" s="31">
         <v>0</v>
       </c>
       <c r="F188" s="13"/>
-      <c r="G188" s="16"/>
-      <c r="H188" s="16"/>
-      <c r="I188" s="10"/>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A189" s="28">
+      <c r="G188" s="61"/>
+      <c r="J188" s="10"/>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A189" s="26">
         <v>44839</v>
       </c>
-      <c r="B189" s="34">
+      <c r="B189" s="32">
         <v>0</v>
       </c>
       <c r="C189" s="2">
@@ -5585,19 +5700,18 @@
       <c r="D189" s="2">
         <v>0</v>
       </c>
-      <c r="E189" s="33">
+      <c r="E189" s="31">
         <v>0</v>
       </c>
       <c r="F189" s="13"/>
-      <c r="G189" s="16"/>
-      <c r="H189" s="16"/>
-      <c r="I189" s="10"/>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A190" s="28">
+      <c r="G189" s="61"/>
+      <c r="J189" s="10"/>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A190" s="26">
         <v>44840</v>
       </c>
-      <c r="B190" s="34">
+      <c r="B190" s="32">
         <v>0</v>
       </c>
       <c r="C190" s="2">
@@ -5606,19 +5720,18 @@
       <c r="D190" s="2">
         <v>0</v>
       </c>
-      <c r="E190" s="33">
+      <c r="E190" s="31">
         <v>0</v>
       </c>
       <c r="F190" s="13"/>
-      <c r="G190" s="16"/>
-      <c r="H190" s="16"/>
-      <c r="I190" s="10"/>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A191" s="28">
+      <c r="G190" s="61"/>
+      <c r="J190" s="10"/>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A191" s="26">
         <v>44841</v>
       </c>
-      <c r="B191" s="34">
+      <c r="B191" s="32">
         <v>0</v>
       </c>
       <c r="C191" s="1">
@@ -5627,27 +5740,30 @@
       <c r="D191" s="2">
         <v>0</v>
       </c>
-      <c r="E191" s="33">
-        <v>0</v>
-      </c>
-      <c r="F191" s="45" t="s">
+      <c r="E191" s="31">
+        <v>0</v>
+      </c>
+      <c r="F191" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G191" s="46" t="s">
+      <c r="G191" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="H191" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H191" s="46" t="s">
+      <c r="I191" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="I191" s="56" t="s">
+      <c r="J191" s="54" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A192" s="28">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A192" s="26">
         <v>44842</v>
       </c>
-      <c r="B192" s="34">
+      <c r="B192" s="32">
         <v>0</v>
       </c>
       <c r="C192" s="1">
@@ -5656,27 +5772,30 @@
       <c r="D192" s="2">
         <v>0</v>
       </c>
-      <c r="E192" s="33">
-        <v>0</v>
-      </c>
-      <c r="F192" s="45" t="s">
+      <c r="E192" s="31">
+        <v>0</v>
+      </c>
+      <c r="F192" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G192" s="46" t="s">
+      <c r="G192" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="H192" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H192" s="46" t="s">
+      <c r="I192" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="I192" s="56" t="s">
+      <c r="J192" s="54" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A193" s="28">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A193" s="26">
         <v>44843</v>
       </c>
-      <c r="B193" s="34">
+      <c r="B193" s="32">
         <v>0</v>
       </c>
       <c r="C193" s="2">
@@ -5685,19 +5804,18 @@
       <c r="D193" s="2">
         <v>0</v>
       </c>
-      <c r="E193" s="33">
+      <c r="E193" s="31">
         <v>0</v>
       </c>
       <c r="F193" s="13"/>
-      <c r="G193" s="16"/>
-      <c r="H193" s="16"/>
-      <c r="I193" s="10"/>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A194" s="28">
+      <c r="G193" s="61"/>
+      <c r="J193" s="10"/>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A194" s="26">
         <v>44844</v>
       </c>
-      <c r="B194" s="34">
+      <c r="B194" s="32">
         <v>0</v>
       </c>
       <c r="C194" s="2">
@@ -5706,19 +5824,18 @@
       <c r="D194" s="2">
         <v>0</v>
       </c>
-      <c r="E194" s="33">
+      <c r="E194" s="31">
         <v>0</v>
       </c>
       <c r="F194" s="13"/>
-      <c r="G194" s="16"/>
-      <c r="H194" s="16"/>
-      <c r="I194" s="10"/>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A195" s="28">
+      <c r="G194" s="61"/>
+      <c r="J194" s="10"/>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A195" s="26">
         <v>44845</v>
       </c>
-      <c r="B195" s="34">
+      <c r="B195" s="32">
         <v>0</v>
       </c>
       <c r="C195" s="2">
@@ -5727,19 +5844,18 @@
       <c r="D195" s="2">
         <v>0</v>
       </c>
-      <c r="E195" s="33">
+      <c r="E195" s="31">
         <v>0</v>
       </c>
       <c r="F195" s="13"/>
-      <c r="G195" s="16"/>
-      <c r="H195" s="16"/>
-      <c r="I195" s="10"/>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A196" s="28">
+      <c r="G195" s="61"/>
+      <c r="J195" s="10"/>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A196" s="26">
         <v>44846</v>
       </c>
-      <c r="B196" s="34">
+      <c r="B196" s="32">
         <v>0</v>
       </c>
       <c r="C196" s="2">
@@ -5748,19 +5864,18 @@
       <c r="D196" s="2">
         <v>0</v>
       </c>
-      <c r="E196" s="33">
+      <c r="E196" s="31">
         <v>0</v>
       </c>
       <c r="F196" s="13"/>
-      <c r="G196" s="16"/>
-      <c r="H196" s="16"/>
-      <c r="I196" s="10"/>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A197" s="28">
+      <c r="G196" s="61"/>
+      <c r="J196" s="10"/>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A197" s="26">
         <v>44847</v>
       </c>
-      <c r="B197" s="34">
+      <c r="B197" s="32">
         <v>0</v>
       </c>
       <c r="C197" s="2">
@@ -5769,19 +5884,18 @@
       <c r="D197" s="2">
         <v>0</v>
       </c>
-      <c r="E197" s="33">
+      <c r="E197" s="31">
         <v>0</v>
       </c>
       <c r="F197" s="13"/>
-      <c r="G197" s="16"/>
-      <c r="H197" s="16"/>
-      <c r="I197" s="10"/>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A198" s="28">
+      <c r="G197" s="61"/>
+      <c r="J197" s="10"/>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A198" s="26">
         <v>44848</v>
       </c>
-      <c r="B198" s="34">
+      <c r="B198" s="32">
         <v>0</v>
       </c>
       <c r="C198" s="2">
@@ -5790,19 +5904,18 @@
       <c r="D198" s="2">
         <v>0</v>
       </c>
-      <c r="E198" s="33">
+      <c r="E198" s="31">
         <v>0</v>
       </c>
       <c r="F198" s="13"/>
-      <c r="G198" s="16"/>
-      <c r="H198" s="16"/>
-      <c r="I198" s="10"/>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A199" s="28">
+      <c r="G198" s="61"/>
+      <c r="J198" s="10"/>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A199" s="26">
         <v>44849</v>
       </c>
-      <c r="B199" s="34">
+      <c r="B199" s="32">
         <v>0</v>
       </c>
       <c r="C199" s="2">
@@ -5811,19 +5924,18 @@
       <c r="D199" s="2">
         <v>0</v>
       </c>
-      <c r="E199" s="33">
+      <c r="E199" s="31">
         <v>0</v>
       </c>
       <c r="F199" s="13"/>
-      <c r="G199" s="16"/>
-      <c r="H199" s="16"/>
-      <c r="I199" s="10"/>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A200" s="28">
+      <c r="G199" s="61"/>
+      <c r="J199" s="10"/>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A200" s="26">
         <v>44850</v>
       </c>
-      <c r="B200" s="34">
+      <c r="B200" s="32">
         <v>0</v>
       </c>
       <c r="C200" s="2">
@@ -5832,27 +5944,30 @@
       <c r="D200" s="1">
         <v>1</v>
       </c>
-      <c r="E200" s="33">
-        <v>0</v>
-      </c>
-      <c r="F200" s="45" t="s">
+      <c r="E200" s="31">
+        <v>0</v>
+      </c>
+      <c r="F200" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G200" s="46" t="s">
+      <c r="G200" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="H200" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H200" s="46" t="s">
+      <c r="I200" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="I200" s="56" t="s">
+      <c r="J200" s="54" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A201" s="28">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A201" s="26">
         <v>44851</v>
       </c>
-      <c r="B201" s="34">
+      <c r="B201" s="32">
         <v>0</v>
       </c>
       <c r="C201" s="2">
@@ -5861,27 +5976,30 @@
       <c r="D201" s="1">
         <v>1</v>
       </c>
-      <c r="E201" s="33">
-        <v>0</v>
-      </c>
-      <c r="F201" s="45" t="s">
+      <c r="E201" s="31">
+        <v>0</v>
+      </c>
+      <c r="F201" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G201" s="46" t="s">
+      <c r="G201" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="H201" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H201" s="46" t="s">
+      <c r="I201" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="I201" s="56" t="s">
+      <c r="J201" s="54" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A202" s="28">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A202" s="26">
         <v>44852</v>
       </c>
-      <c r="B202" s="34">
+      <c r="B202" s="32">
         <v>0</v>
       </c>
       <c r="C202" s="2">
@@ -5890,19 +6008,18 @@
       <c r="D202" s="2">
         <v>0</v>
       </c>
-      <c r="E202" s="33">
+      <c r="E202" s="31">
         <v>0</v>
       </c>
       <c r="F202" s="13"/>
-      <c r="G202" s="16"/>
-      <c r="H202" s="16"/>
-      <c r="I202" s="10"/>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A203" s="28">
+      <c r="G202" s="61"/>
+      <c r="J202" s="10"/>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A203" s="26">
         <v>44853</v>
       </c>
-      <c r="B203" s="34">
+      <c r="B203" s="32">
         <v>0</v>
       </c>
       <c r="C203" s="2">
@@ -5911,19 +6028,18 @@
       <c r="D203" s="2">
         <v>0</v>
       </c>
-      <c r="E203" s="33">
+      <c r="E203" s="31">
         <v>0</v>
       </c>
       <c r="F203" s="13"/>
-      <c r="G203" s="16"/>
-      <c r="H203" s="16"/>
-      <c r="I203" s="10"/>
-    </row>
-    <row r="204" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="28">
+      <c r="G203" s="61"/>
+      <c r="J203" s="10"/>
+    </row>
+    <row r="204" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="26">
         <v>44854</v>
       </c>
-      <c r="B204" s="34">
+      <c r="B204" s="32">
         <v>0</v>
       </c>
       <c r="C204" s="2">
@@ -5932,19 +6048,18 @@
       <c r="D204" s="2">
         <v>0</v>
       </c>
-      <c r="E204" s="33">
+      <c r="E204" s="31">
         <v>0</v>
       </c>
       <c r="F204" s="13"/>
-      <c r="G204" s="16"/>
-      <c r="H204" s="16"/>
-      <c r="I204" s="10"/>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A205" s="28">
+      <c r="G204" s="61"/>
+      <c r="J204" s="10"/>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A205" s="26">
         <v>44855</v>
       </c>
-      <c r="B205" s="34">
+      <c r="B205" s="32">
         <v>0</v>
       </c>
       <c r="C205" s="2">
@@ -5953,26 +6068,25 @@
       <c r="D205" s="2">
         <v>0</v>
       </c>
-      <c r="E205" s="33">
+      <c r="E205" s="31">
         <v>0</v>
       </c>
       <c r="F205" s="13"/>
-      <c r="G205" s="16"/>
-      <c r="H205" s="16"/>
-      <c r="I205" s="10"/>
-      <c r="K205" s="22" t="s">
+      <c r="G205" s="61"/>
+      <c r="J205" s="10"/>
+      <c r="L205" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="L205" s="23">
+      <c r="M205" s="21">
         <f>COUNTIF(F2:F214,"Rojo")</f>
         <v>21</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A206" s="28">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A206" s="26">
         <v>44856</v>
       </c>
-      <c r="B206" s="34">
+      <c r="B206" s="32">
         <v>0</v>
       </c>
       <c r="C206" s="2">
@@ -5981,26 +6095,25 @@
       <c r="D206" s="2">
         <v>0</v>
       </c>
-      <c r="E206" s="33">
+      <c r="E206" s="31">
         <v>0</v>
       </c>
       <c r="F206" s="13"/>
-      <c r="G206" s="16"/>
-      <c r="H206" s="16"/>
-      <c r="I206" s="10"/>
-      <c r="K206" s="9" t="s">
+      <c r="G206" s="61"/>
+      <c r="J206" s="10"/>
+      <c r="L206" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L206" s="10">
+      <c r="M206" s="10">
         <f>COUNTIF(F2:F214,"Toloza")</f>
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A207" s="28">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A207" s="26">
         <v>44857</v>
       </c>
-      <c r="B207" s="34">
+      <c r="B207" s="32">
         <v>0</v>
       </c>
       <c r="C207" s="2">
@@ -6009,26 +6122,25 @@
       <c r="D207" s="2">
         <v>0</v>
       </c>
-      <c r="E207" s="33">
+      <c r="E207" s="31">
         <v>0</v>
       </c>
       <c r="F207" s="13"/>
-      <c r="G207" s="16"/>
-      <c r="H207" s="16"/>
-      <c r="I207" s="10"/>
-      <c r="K207" s="9" t="s">
+      <c r="G207" s="61"/>
+      <c r="J207" s="10"/>
+      <c r="L207" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L207" s="10">
+      <c r="M207" s="10">
         <f>COUNTIF(F2:F214,"Leiva")</f>
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="28">
+    <row r="208" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="26">
         <v>44858</v>
       </c>
-      <c r="B208" s="34">
+      <c r="B208" s="32">
         <v>0</v>
       </c>
       <c r="C208" s="2">
@@ -6037,26 +6149,25 @@
       <c r="D208" s="2">
         <v>0</v>
       </c>
-      <c r="E208" s="33">
+      <c r="E208" s="31">
         <v>0</v>
       </c>
       <c r="F208" s="13"/>
-      <c r="G208" s="16"/>
-      <c r="H208" s="16"/>
-      <c r="I208" s="10"/>
-      <c r="K208" s="11" t="s">
+      <c r="G208" s="61"/>
+      <c r="J208" s="10"/>
+      <c r="L208" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L208" s="12">
+      <c r="M208" s="12">
         <f>COUNTIF(F2:F214,"Schreiber")</f>
         <v>27</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="28">
+    <row r="209" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="26">
         <v>44859</v>
       </c>
-      <c r="B209" s="32">
+      <c r="B209" s="30">
         <v>1</v>
       </c>
       <c r="C209" s="2">
@@ -6065,29 +6176,34 @@
       <c r="D209" s="2">
         <v>0</v>
       </c>
-      <c r="E209" s="33">
+      <c r="E209" s="31">
         <v>0</v>
       </c>
       <c r="F209" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G209" s="46" t="s">
+      <c r="G209" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="H209" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H209" s="46" t="s">
+      <c r="I209" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="I209" s="10"/>
-      <c r="L209" s="24">
-        <f>SUM(L205:L208)</f>
+      <c r="J209" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="M209" s="22">
+        <f>SUM(M205:M208)</f>
         <v>67</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A210" s="28">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A210" s="26">
         <v>44860</v>
       </c>
-      <c r="B210" s="32">
+      <c r="B210" s="30">
         <v>1</v>
       </c>
       <c r="C210" s="2">
@@ -6096,25 +6212,30 @@
       <c r="D210" s="2">
         <v>0</v>
       </c>
-      <c r="E210" s="33">
+      <c r="E210" s="31">
         <v>0</v>
       </c>
       <c r="F210" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G210" s="46" t="s">
+      <c r="G210" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="H210" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H210" s="46" t="s">
+      <c r="I210" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="I210" s="10"/>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A211" s="28">
+      <c r="J210" s="54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A211" s="26">
         <v>44861</v>
       </c>
-      <c r="B211" s="34">
+      <c r="B211" s="32">
         <v>0</v>
       </c>
       <c r="C211" s="2">
@@ -6123,19 +6244,18 @@
       <c r="D211" s="2">
         <v>0</v>
       </c>
-      <c r="E211" s="33">
+      <c r="E211" s="31">
         <v>0</v>
       </c>
       <c r="F211" s="13"/>
-      <c r="G211" s="16"/>
-      <c r="H211" s="16"/>
-      <c r="I211" s="10"/>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A212" s="28">
+      <c r="G211" s="61"/>
+      <c r="J211" s="10"/>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A212" s="26">
         <v>44862</v>
       </c>
-      <c r="B212" s="34">
+      <c r="B212" s="32">
         <v>0</v>
       </c>
       <c r="C212" s="2">
@@ -6144,19 +6264,18 @@
       <c r="D212" s="2">
         <v>0</v>
       </c>
-      <c r="E212" s="33">
+      <c r="E212" s="31">
         <v>0</v>
       </c>
       <c r="F212" s="13"/>
-      <c r="G212" s="16"/>
-      <c r="H212" s="16"/>
-      <c r="I212" s="10"/>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A213" s="28">
+      <c r="G212" s="61"/>
+      <c r="J212" s="10"/>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A213" s="26">
         <v>44863</v>
       </c>
-      <c r="B213" s="34">
+      <c r="B213" s="32">
         <v>0</v>
       </c>
       <c r="C213" s="2">
@@ -6165,74 +6284,76 @@
       <c r="D213" s="2">
         <v>0</v>
       </c>
-      <c r="E213" s="33">
+      <c r="E213" s="31">
         <v>0</v>
       </c>
       <c r="F213" s="13"/>
-      <c r="G213" s="16"/>
-      <c r="H213" s="16"/>
-      <c r="I213" s="10"/>
-    </row>
-    <row r="214" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="28">
+      <c r="G213" s="61"/>
+      <c r="J213" s="10"/>
+    </row>
+    <row r="214" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="26">
         <v>44864</v>
       </c>
-      <c r="B214" s="37">
-        <v>0</v>
-      </c>
-      <c r="C214" s="38">
-        <v>0</v>
-      </c>
-      <c r="D214" s="38">
-        <v>0</v>
-      </c>
-      <c r="E214" s="39">
+      <c r="B214" s="35">
+        <v>0</v>
+      </c>
+      <c r="C214" s="36">
+        <v>0</v>
+      </c>
+      <c r="D214" s="36">
+        <v>0</v>
+      </c>
+      <c r="E214" s="37">
         <v>0</v>
       </c>
       <c r="F214" s="13"/>
-      <c r="G214" s="17"/>
-      <c r="H214" s="17"/>
-      <c r="I214" s="12"/>
-    </row>
-    <row r="215" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G214" s="61"/>
+      <c r="H214" s="15"/>
+      <c r="I214" s="15"/>
+      <c r="J214" s="12"/>
+    </row>
+    <row r="215" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B215" s="29">
+      <c r="B215" s="27">
         <f>SUM(B2:B214)</f>
         <v>27</v>
       </c>
-      <c r="C215" s="29">
+      <c r="C215" s="27">
         <f t="shared" ref="C215:E215" si="0">SUM(C2:C214)</f>
         <v>17</v>
       </c>
-      <c r="D215" s="29">
+      <c r="D215" s="27">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="E215" s="57">
+      <c r="E215" s="55">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F215" s="58">
+      <c r="F215" s="56">
         <f>SUM(B215:E215)</f>
         <v>66</v>
       </c>
-      <c r="G215" s="14"/>
-      <c r="H215" s="14" t="s">
+      <c r="G215" s="62"/>
+      <c r="H215" s="38"/>
+      <c r="I215" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="I215" s="10">
-        <f>COUNTIF(I2:I213,"True")</f>
+      <c r="J215" s="21">
+        <f>COUNTIF(J2:J213,"True")</f>
         <v>40</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H216" s="15" t="s">
+    <row r="216" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H216" s="58"/>
+      <c r="I216" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I216" s="10">
-        <f>COUNTIF(I3:I214,"Weather loss")</f>
+      <c r="J216" s="12">
+        <f>COUNTIF(J3:J214,"Weather loss")</f>
         <v>15</v>
       </c>
     </row>
